--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C071AA9-25D3-48CA-8BAC-7BF22B2F34FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B3D31-7A2F-492B-95E5-D8E6773C2FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>produto</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>rabanete</t>
+  </si>
+  <si>
+    <t>rúcula</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +524,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017B3D31-7A2F-492B-95E5-D8E6773C2FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91400C74-FB33-4453-A481-600940934482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>produto</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>rúcula</t>
+  </si>
+  <si>
+    <t>mexerica ponkan</t>
+  </si>
+  <si>
+    <t>hortelã</t>
   </si>
 </sst>
 </file>
@@ -424,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,6 +541,25 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91400C74-FB33-4453-A481-600940934482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333F28D3-A5FB-4194-BB89-D658136C7EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>produto</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>hortelã</t>
+  </si>
+  <si>
+    <t>pepino</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +563,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333F28D3-A5FB-4194-BB89-D658136C7EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B877E4B-2057-4D86-B602-C1CB3566815F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>produto</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>pepino</t>
+  </si>
+  <si>
+    <t>uva</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +574,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B877E4B-2057-4D86-B602-C1CB3566815F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623B19C-B240-4E46-8D72-A682A259D3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="busca_cesta" sheetId="2" r:id="rId2"/>
+    <sheet name="mutiroes" sheetId="4" r:id="rId3"/>
+    <sheet name="info_nutricional" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="142">
   <si>
     <t>produto</t>
   </si>
@@ -45,9 +48,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
     <t>mandioca</t>
   </si>
   <si>
@@ -57,15 +57,6 @@
     <t>alface crespa</t>
   </si>
   <si>
-    <t>escarola</t>
-  </si>
-  <si>
-    <t>espinafre</t>
-  </si>
-  <si>
-    <t>acelga</t>
-  </si>
-  <si>
     <t>beterraba</t>
   </si>
   <si>
@@ -81,18 +72,410 @@
     <t>hortelã</t>
   </si>
   <si>
-    <t>pepino</t>
-  </si>
-  <si>
-    <t>uva</t>
+    <t>pimenta biquinho</t>
+  </si>
+  <si>
+    <t>amora</t>
+  </si>
+  <si>
+    <t>acerola</t>
+  </si>
+  <si>
+    <t>banana prata</t>
+  </si>
+  <si>
+    <t>banana nanina</t>
+  </si>
+  <si>
+    <t>banana marmelo/figo/pão</t>
+  </si>
+  <si>
+    <t>ervilha torta</t>
+  </si>
+  <si>
+    <t>tomate</t>
+  </si>
+  <si>
+    <t>coentro</t>
+  </si>
+  <si>
+    <t>salsinha</t>
+  </si>
+  <si>
+    <t>cebolinha</t>
+  </si>
+  <si>
+    <t>brócolis</t>
+  </si>
+  <si>
+    <t>couve-flor</t>
+  </si>
+  <si>
+    <t>couve manteiga</t>
+  </si>
+  <si>
+    <t>manga</t>
+  </si>
+  <si>
+    <t>morango</t>
+  </si>
+  <si>
+    <t>alho poró</t>
+  </si>
+  <si>
+    <t>hortelã pimenta</t>
+  </si>
+  <si>
+    <t>figo</t>
+  </si>
+  <si>
+    <t>feijão guandu</t>
+  </si>
+  <si>
+    <t>peixinho</t>
+  </si>
+  <si>
+    <t>azedinha</t>
+  </si>
+  <si>
+    <t>ora-pro-nóbis</t>
+  </si>
+  <si>
+    <t>laranja</t>
+  </si>
+  <si>
+    <t>alecrim</t>
+  </si>
+  <si>
+    <t>manjericão</t>
+  </si>
+  <si>
+    <t>chaya/árvore de espinafre</t>
+  </si>
+  <si>
+    <t>pimentão</t>
+  </si>
+  <si>
+    <t>salsão</t>
+  </si>
+  <si>
+    <t>limão cravo</t>
+  </si>
+  <si>
+    <t>alfavaca</t>
+  </si>
+  <si>
+    <t>goiaba vermelha</t>
+  </si>
+  <si>
+    <t>goiaba branca</t>
+  </si>
+  <si>
+    <t>gengibre</t>
+  </si>
+  <si>
+    <t>colorau/pó de urucum</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>Débora/Humberto</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Alimento</t>
+  </si>
+  <si>
+    <t>Gramas</t>
+  </si>
+  <si>
+    <t>Calorias</t>
+  </si>
+  <si>
+    <t>Proteína</t>
+  </si>
+  <si>
+    <t>Fibra</t>
+  </si>
+  <si>
+    <t>Carboidrato</t>
+  </si>
+  <si>
+    <t>Alcachofra</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Aspargo</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>Broto de feijão</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Folhas de beterraba</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Beterraba</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Brócolis</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Couve de bruxelas</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Cenouras</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Couve-flor</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Salsão</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Milho</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>Pepino</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Melancia</t>
+  </si>
+  <si>
+    <t>925.0</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>Batata doce</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>Ervilhas</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>Alface</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>Couve</t>
+  </si>
+  <si>
+    <t>Berinjela</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>29/mai</t>
+  </si>
+  <si>
+    <t>06/jun</t>
+  </si>
+  <si>
+    <t>batata tupinambo/ alcachofra-girassol/ girassol-batateiro</t>
+  </si>
+  <si>
+    <t>bertalha/ espinafre indiano</t>
+  </si>
+  <si>
+    <t>chingensai/ bok choi/ acelga chinesa</t>
+  </si>
+  <si>
+    <t>cúrcuma/ açafrão-da-terra/ açafrão-da-índia</t>
+  </si>
+  <si>
+    <t>hibisco/ vinagreira/ quiabo-azedo</t>
+  </si>
+  <si>
+    <t>tomate cereja/ tomatinho</t>
+  </si>
+  <si>
+    <t>30/mai</t>
+  </si>
+  <si>
+    <t>preparo de novos canteiros</t>
+  </si>
+  <si>
+    <t>Marina/Renato, ???</t>
+  </si>
+  <si>
+    <t>pimenta-cambuci/ pimentão-chapéu-de-bispo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,8 +503,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,31 +821,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -473,24 +858,18 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -501,12 +880,15 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -514,12 +896,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -527,40 +912,31 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -568,7 +944,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -576,13 +952,858 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="A51"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A844EE-D887-4A6B-B86C-B7C752CAF55A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72601697-55EE-475A-BC70-2B6BB9EC57DD}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF289E3-7000-4F49-BDDB-76D25F29B57D}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623B19C-B240-4E46-8D72-A682A259D3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6940B3-6378-4B5B-B647-2440A86582FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="144">
   <si>
     <t>produto</t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>pimenta-cambuci/ pimentão-chapéu-de-bispo</t>
+  </si>
+  <si>
+    <t>jiló</t>
+  </si>
+  <si>
+    <t>cabeludinha/ jabuticaba amarela</t>
   </si>
 </sst>
 </file>
@@ -821,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,26 +974,26 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -995,7 +1001,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1003,7 +1009,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1011,7 +1017,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1019,7 +1025,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1027,7 +1033,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1035,7 +1041,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1043,7 +1049,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1059,26 +1065,26 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1086,7 +1092,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1094,7 +1100,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1102,7 +1108,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1110,7 +1116,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1118,18 +1124,15 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1137,15 +1140,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1153,18 +1159,15 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1172,15 +1175,18 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1188,7 +1194,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1196,18 +1202,15 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1215,15 +1218,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1231,7 +1237,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1239,18 +1245,15 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1258,15 +1261,34 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>137</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
-    <sortCondition ref="A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
+    <sortCondition ref="A53"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6940B3-6378-4B5B-B647-2440A86582FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE05219-5366-4FB1-857A-96A3AD8A1D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>banana prata</t>
   </si>
   <si>
-    <t>banana nanina</t>
-  </si>
-  <si>
     <t>banana marmelo/figo/pão</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>cabeludinha/ jabuticaba amarela</t>
+  </si>
+  <si>
+    <t>banana nanica</t>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1307,26 +1307,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1349,17 +1349,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1384,442 +1384,442 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
       <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>90</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
         <v>93</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
         <v>95</v>
       </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>96</v>
-      </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>118</v>
       </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
         <v>119</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
         <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
         <v>111</v>
       </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>112</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
         <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
         <v>128</v>
       </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE05219-5366-4FB1-857A-96A3AD8A1D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0B3E2-8478-40C3-9172-9F9E39C08D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
   <si>
     <t>produto</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>banana nanica</t>
+  </si>
+  <si>
+    <t>espinfre</t>
+  </si>
+  <si>
+    <t>caju</t>
   </si>
 </sst>
 </file>
@@ -827,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,26 +988,26 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1009,7 +1015,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1017,7 +1023,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1025,7 +1031,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1033,7 +1039,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1041,7 +1047,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1049,7 +1055,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1057,7 +1063,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1073,18 +1079,15 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1092,15 +1095,18 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1108,7 +1114,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1116,7 +1122,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1124,7 +1130,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1132,7 +1138,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1140,18 +1146,15 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1159,15 +1162,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1175,18 +1181,15 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1194,15 +1197,18 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1218,18 +1224,15 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1237,15 +1240,18 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1253,7 +1259,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1261,18 +1267,15 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1280,15 +1283,34 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>136</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
-    <sortCondition ref="A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C55">
+    <sortCondition ref="A35"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0B3E2-8478-40C3-9172-9F9E39C08D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F5A4F1-3023-4606-A33D-FE0203D3C1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
     <sheet name="busca_cesta" sheetId="2" r:id="rId2"/>
     <sheet name="mutiroes" sheetId="4" r:id="rId3"/>
     <sheet name="info_nutricional" sheetId="3" r:id="rId4"/>
+    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
   <si>
     <t>produto</t>
   </si>
@@ -183,246 +184,21 @@
     <t>???</t>
   </si>
   <si>
-    <t>Alimento</t>
-  </si>
-  <si>
-    <t>Gramas</t>
-  </si>
-  <si>
-    <t>Calorias</t>
-  </si>
-  <si>
-    <t>Proteína</t>
-  </si>
-  <si>
-    <t>Fibra</t>
-  </si>
-  <si>
-    <t>Carboidrato</t>
-  </si>
-  <si>
-    <t>Alcachofra</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>Aspargo</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>Feijão</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>Broto de feijão</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>Folhas de beterraba</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>Beterraba</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Brócolis</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>Couve de bruxelas</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>Cenouras</t>
-  </si>
-  <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>Couve-flor</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>Salsão</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>Milho</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>Pepino</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>Melancia</t>
-  </si>
-  <si>
-    <t>925.0</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>Batata doce</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>Ervilhas</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>Alface</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>Couve</t>
-  </si>
-  <si>
-    <t>Berinjela</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>Tomate</t>
-  </si>
-  <si>
-    <t>240.0</t>
-  </si>
-  <si>
     <t>29/mai</t>
   </si>
   <si>
@@ -472,6 +248,219 @@
   </si>
   <si>
     <t>caju</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>7.69</t>
+  </si>
+  <si>
+    <t>1677.6</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>14.15</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>9.61</t>
+  </si>
+  <si>
+    <t>18.51</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>17.44</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>15.17</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>9.56</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>6.64</t>
+  </si>
+  <si>
+    <t>89.2</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>12.58</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>219.3</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>164.7</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>234.46</t>
+  </si>
+  <si>
+    <t>28.48</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>alimento</t>
+  </si>
+  <si>
+    <t>vitamina c (mg)</t>
+  </si>
+  <si>
+    <t>carboidrato (g)</t>
+  </si>
+  <si>
+    <t>fibra (g)</t>
+  </si>
+  <si>
+    <t>proteína (g)</t>
+  </si>
+  <si>
+    <t>calorias (kcal)</t>
   </si>
 </sst>
 </file>
@@ -515,10 +504,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +922,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -948,7 +938,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -956,7 +946,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -980,7 +970,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -988,7 +978,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1015,7 +1005,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1055,7 +1045,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1071,7 +1061,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1122,7 +1112,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1146,7 +1136,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1240,7 +1230,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1302,7 +1292,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1320,7 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A844EE-D887-4A6B-B86C-B7C752CAF55A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1329,10 +1321,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1361,7 +1353,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,17 +1363,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1391,463 +1383,662 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF289E3-7000-4F49-BDDB-76D25F29B57D}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>126</v>
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>120</v>
+        <v>107</v>
+      </c>
+      <c r="F14">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
+        <v>119</v>
+      </c>
+      <c r="F17">
+        <v>2147</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <f>1.05*100/70</f>
+        <v>1.5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
+        <v>129</v>
+      </c>
+      <c r="F21">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>128</v>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-    <sortCondition ref="A2"/>
-  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A8170-C326-48C9-9DB4-ACB9C17D90E1}">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F5A4F1-3023-4606-A33D-FE0203D3C1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEE5110-098F-4E7B-9D0C-8C7518C3D978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
   <si>
     <t>produto</t>
   </si>
@@ -229,9 +229,6 @@
     <t>preparo de novos canteiros</t>
   </si>
   <si>
-    <t>Marina/Renato, ???</t>
-  </si>
-  <si>
     <t>pimenta-cambuci/ pimentão-chapéu-de-bispo</t>
   </si>
   <si>
@@ -461,6 +458,12 @@
   </si>
   <si>
     <t>calorias (kcal)</t>
+  </si>
+  <si>
+    <t>Andrea, Bernadete, Alex, Luiz, Ronaldo, Marina/Renato</t>
+  </si>
+  <si>
+    <t>Bernadete, Débora, Alex, Luiz, Ronaldo</t>
   </si>
 </sst>
 </file>
@@ -504,11 +507,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,7 +926,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -970,7 +974,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -978,7 +982,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1061,7 +1065,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1136,7 +1140,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1230,7 +1234,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1310,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A844EE-D887-4A6B-B86C-B7C752CAF55A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1350,30 +1354,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72601697-55EE-475A-BC70-2B6BB9EC57DD}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1401,22 +1415,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,16 +1441,16 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,13 +1461,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>43</v>
@@ -1467,16 +1481,16 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1490,13 +1504,13 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
         <v>83</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,16 +1518,16 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -1527,13 +1541,13 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1547,13 +1561,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -1564,16 +1578,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
       </c>
       <c r="F9">
         <v>26</v>
@@ -1587,21 +1601,21 @@
         <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>92</v>
@@ -1613,10 +1627,10 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
         <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,7 +1641,7 @@
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1636,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
         <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1664,16 +1678,16 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
       </c>
       <c r="F14">
         <v>102</v>
@@ -1687,16 +1701,16 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>111</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,33 +1721,33 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>114</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>75</v>
       </c>
       <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
         <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
       </c>
       <c r="F17">
         <v>2147</v>
@@ -1741,10 +1755,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1753,10 +1767,10 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
         <v>121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,16 +1781,16 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
         <v>123</v>
       </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
@@ -1796,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,7 +1818,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21">
         <f>1.05*100/70</f>
@@ -1814,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21">
         <v>45</v>
@@ -1828,13 +1842,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
         <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" t="s">
-        <v>131</v>
       </c>
       <c r="F22">
         <v>27</v>
@@ -1845,16 +1859,16 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="C23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1869,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A8170-C326-48C9-9DB4-ACB9C17D90E1}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -1900,7 +1914,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1945,7 +1959,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2000,7 +2014,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEE5110-098F-4E7B-9D0C-8C7518C3D978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD779EA-8558-445E-BB01-26783B449598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="2" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="144">
   <si>
     <t>produto</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>Bernadete, Débora, Alex, Luiz, Ronaldo</t>
+  </si>
+  <si>
+    <t>03/jun</t>
   </si>
 </sst>
 </file>
@@ -507,12 +510,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A844EE-D887-4A6B-B86C-B7C752CAF55A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72601697-55EE-475A-BC70-2B6BB9EC57DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,8 +1372,8 @@
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4">
-        <v>44350</v>
+      <c r="B1" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD779EA-8558-445E-BB01-26783B449598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24848C3D-F61E-4BC0-A829-0BF31FE27AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="2" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="265">
   <si>
     <t>produto</t>
   </si>
@@ -241,9 +241,6 @@
     <t>banana nanica</t>
   </si>
   <si>
-    <t>espinfre</t>
-  </si>
-  <si>
     <t>caju</t>
   </si>
   <si>
@@ -448,15 +445,6 @@
     <t>vitamina c (mg)</t>
   </si>
   <si>
-    <t>carboidrato (g)</t>
-  </si>
-  <si>
-    <t>fibra (g)</t>
-  </si>
-  <si>
-    <t>proteína (g)</t>
-  </si>
-  <si>
     <t>calorias (kcal)</t>
   </si>
   <si>
@@ -467,6 +455,401 @@
   </si>
   <si>
     <t>03/jun</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>carro 1</t>
+  </si>
+  <si>
+    <t>carro 2</t>
+  </si>
+  <si>
+    <t>participantes</t>
+  </si>
+  <si>
+    <t>bertalha</t>
+  </si>
+  <si>
+    <t>cabeludinha</t>
+  </si>
+  <si>
+    <t>chaya</t>
+  </si>
+  <si>
+    <t>chingensai</t>
+  </si>
+  <si>
+    <t>colorau</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>cúrcuma</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>48.2</t>
+  </si>
+  <si>
+    <t>11.43</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>65.37</t>
+  </si>
+  <si>
+    <t>80.8</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>espinafre</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>62.78</t>
+  </si>
+  <si>
+    <t>23.88</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>19.18</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>17.77</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>99.2</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>80.6</t>
+  </si>
+  <si>
+    <t>hibisco</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>11.31</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>8.41</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>14.89</t>
+  </si>
+  <si>
+    <t>31.8</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>11.75</t>
+  </si>
+  <si>
+    <t>53.2</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>32.78</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>38.06</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>14.98</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>58.8</t>
+  </si>
+  <si>
+    <t>pimenta-cambuci</t>
+  </si>
+  <si>
+    <t>31.60</t>
+  </si>
+  <si>
+    <t>185.8</t>
+  </si>
+  <si>
+    <t>39.1</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>13.21</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>41.85</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>80.4</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>6.33</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>tomate 
+cereja</t>
+  </si>
+  <si>
+    <t>alface
+crespa</t>
+  </si>
+  <si>
+    <t>alho
+poró</t>
+  </si>
+  <si>
+    <t>banana
+pão</t>
+  </si>
+  <si>
+    <t>banana
+nanica</t>
+  </si>
+  <si>
+    <t>banana
+prata</t>
+  </si>
+  <si>
+    <t>batata
+tupinambo</t>
+  </si>
+  <si>
+    <t>couve
+manteiga</t>
+  </si>
+  <si>
+    <t>ervilha
+torta</t>
+  </si>
+  <si>
+    <t>feijão
+guandu
+(verde)</t>
+  </si>
+  <si>
+    <t>feijão
+guandu
+(seco)</t>
+  </si>
+  <si>
+    <t>goiaba
+branca</t>
+  </si>
+  <si>
+    <t>goiaba
+vermelha</t>
+  </si>
+  <si>
+    <t>hortelã
+pimenta</t>
+  </si>
+  <si>
+    <t>limão
+cravo
+(suco)</t>
+  </si>
+  <si>
+    <t>mexerica
+ponkan</t>
+  </si>
+  <si>
+    <t>pimenta
+biquinho</t>
+  </si>
+  <si>
+    <t>proteínas (g)</t>
+  </si>
+  <si>
+    <t>fibras (g)</t>
+  </si>
+  <si>
+    <t>carboidratos (g)</t>
+  </si>
+  <si>
+    <t>caqui</t>
   </si>
 </sst>
 </file>
@@ -510,11 +893,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,8 +1217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +1371,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1067,7 +1454,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1314,82 +1701,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A844EE-D887-4A6B-B86C-B7C752CAF55A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72601697-55EE-475A-BC70-2B6BB9EC57DD}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1399,40 +1810,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF289E3-7000-4F49-BDDB-76D25F29B57D}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,16 +1855,16 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,13 +1875,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>43</v>
@@ -1483,21 +1895,21 @@
         <v>131</v>
       </c>
       <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
       <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1506,13 +1918,13 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,36 +1932,36 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
         <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
       </c>
       <c r="F6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="B7">
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1563,13 +1975,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
         <v>90</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
       </c>
       <c r="F8">
         <v>21</v>
@@ -1580,44 +1992,44 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>95</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
       </c>
       <c r="F9">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="B10">
         <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
         <v>97</v>
       </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="B11">
         <v>92</v>
@@ -1629,21 +2041,21 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="B12">
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1652,12 +2064,12 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="B13">
         <v>73</v>
@@ -1666,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
         <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1677,19 +2089,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
         <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
       </c>
       <c r="F14">
         <v>102</v>
@@ -1703,16 +2115,16 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
         <v>109</v>
       </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>110</v>
-      </c>
-      <c r="F15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,33 +2135,33 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
         <v>112</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>113</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>114</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>75</v>
       </c>
       <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
         <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" t="s">
-        <v>118</v>
       </c>
       <c r="F17">
         <v>2147</v>
@@ -1757,10 +2169,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1769,10 +2181,10 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
         <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,27 +2195,27 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
         <v>122</v>
       </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
@@ -1812,15 +2224,15 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <f>1.05*100/70</f>
@@ -1830,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
         <v>45</v>
@@ -1844,13 +2256,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
         <v>129</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" t="s">
-        <v>130</v>
       </c>
       <c r="F22">
         <v>27</v>
@@ -1858,35 +2270,696 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>133</v>
-      </c>
-      <c r="E23" t="s">
-        <v>134</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4.92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26">
+        <v>310</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29">
+        <v>569</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30">
+        <v>343</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A8170-C326-48C9-9DB4-ACB9C17D90E1}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,162 +2969,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24848C3D-F61E-4BC0-A829-0BF31FE27AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68691658-F3C3-4768-BECA-970077F68395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" activeTab="3" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="produtos" sheetId="1" r:id="rId1"/>
-    <sheet name="busca_cesta" sheetId="2" r:id="rId2"/>
-    <sheet name="mutiroes" sheetId="4" r:id="rId3"/>
-    <sheet name="info_nutricional" sheetId="3" r:id="rId4"/>
-    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId5"/>
+    <sheet name="busca_cesta" sheetId="6" r:id="rId1"/>
+    <sheet name="produtos" sheetId="1" r:id="rId2"/>
+    <sheet name="busca_cesta_beta" sheetId="2" r:id="rId3"/>
+    <sheet name="mutiroes" sheetId="4" r:id="rId4"/>
+    <sheet name="info_nutricional" sheetId="3" r:id="rId5"/>
+    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="269">
   <si>
     <t>produto</t>
   </si>
@@ -175,9 +176,6 @@
     <t>colorau/pó de urucum</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>Débora/Humberto</t>
   </si>
   <si>
@@ -202,9 +200,6 @@
     <t>29/mai</t>
   </si>
   <si>
-    <t>06/jun</t>
-  </si>
-  <si>
     <t>batata tupinambo/ alcachofra-girassol/ girassol-batateiro</t>
   </si>
   <si>
@@ -448,22 +443,7 @@
     <t>calorias (kcal)</t>
   </si>
   <si>
-    <t>Andrea, Bernadete, Alex, Luiz, Ronaldo, Marina/Renato</t>
-  </si>
-  <si>
     <t>Bernadete, Débora, Alex, Luiz, Ronaldo</t>
-  </si>
-  <si>
-    <t>03/jun</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>carro 1</t>
-  </si>
-  <si>
-    <t>carro 2</t>
   </si>
   <si>
     <t>participantes</t>
@@ -850,6 +830,39 @@
   </si>
   <si>
     <t>caqui</t>
+  </si>
+  <si>
+    <t>almeirão</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>05/jun</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
+  </si>
+  <si>
+    <t>12/jun</t>
+  </si>
+  <si>
+    <t>19/jun</t>
+  </si>
+  <si>
+    <t>26/jun</t>
+  </si>
+  <si>
+    <t>carro_1</t>
+  </si>
+  <si>
+    <t>carro_2</t>
+  </si>
+  <si>
+    <t>corte de bambus para levar até a horta onde temos o tomate plantado</t>
+  </si>
+  <si>
+    <t>Andrea, Bernadete, Alex, Luiz, Ronaldo, Marina, Renato</t>
   </si>
 </sst>
 </file>
@@ -893,14 +906,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,12 +1242,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D2EF6-F046-402C-93FA-3D704C9CCEA4}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1431,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1331,7 +1447,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1339,7 +1455,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1363,7 +1479,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1371,7 +1487,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1398,7 +1514,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1427,6 +1543,9 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1438,7 +1557,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1454,7 +1573,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1505,7 +1624,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1529,7 +1648,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1623,7 +1742,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1685,9 +1804,28 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1699,52 +1837,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A844EE-D887-4A6B-B86C-B7C752CAF55A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
-        <v>48</v>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1753,54 +1921,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72601697-55EE-475A-BC70-2B6BB9EC57DD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>139</v>
+      <c r="B2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>149</v>
+      <c r="A3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>143</v>
+      <c r="A4" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1808,1144 +1971,1144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF289E3-7000-4F49-BDDB-76D25F29B57D}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
+      <c r="C1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>131</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="4">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="4">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="4">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3">
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="4">
+        <v>98</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="4">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8">
+      <c r="E15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="4">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B19" s="4">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B11">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="4">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12">
-        <v>98</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13">
-        <v>73</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <f>1.05*100/70</f>
         <v>1.5</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
+      <c r="F22" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="4">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B25" s="4">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4.92</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="4">
+        <v>310</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="4">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="4">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" s="4">
+        <v>569</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="4">
+        <v>343</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="4">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="4">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="4">
+        <v>54</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="4">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="4">
+        <v>49</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="4">
+        <v>44</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="4">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="4">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4">
+        <v>160</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="4">
+        <v>60</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="4">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="4">
+        <v>32</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="4">
+        <v>29</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="4">
+        <v>20</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4">
+        <v>16</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="4">
+        <v>25</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="4">
+        <v>16</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="4">
+        <v>36</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="4">
         <v>133</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4">
+        <v>18</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="4">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>4.92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26">
-        <v>310</v>
-      </c>
-      <c r="C26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B29">
-        <v>569</v>
-      </c>
-      <c r="C29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30">
-        <v>343</v>
-      </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B34">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>160</v>
-      </c>
-      <c r="C41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" t="s">
-        <v>202</v>
-      </c>
-      <c r="F41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F48">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49">
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>225</v>
-      </c>
-      <c r="F51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>25</v>
-      </c>
-      <c r="C52" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53">
-        <v>16</v>
-      </c>
-      <c r="C53" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="F56" s="4" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54">
-        <v>36</v>
-      </c>
-      <c r="C54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" t="s">
-        <v>237</v>
-      </c>
-      <c r="E54" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2954,12 +3117,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A8170-C326-48C9-9DB4-ACB9C17D90E1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,7 +3132,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68691658-F3C3-4768-BECA-970077F68395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324925E8-8B32-4174-82E7-115230CAD99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" activeTab="3" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" activeTab="1" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
     <sheet name="busca_cesta" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="269">
   <si>
     <t>produto</t>
   </si>
@@ -1331,11 +1331,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,6 +1444,9 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1468,6 +1471,9 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1807,25 +1813,6 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>257</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>258</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1925,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72601697-55EE-475A-BC70-2B6BB9EC57DD}">
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1945,7 +1932,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
@@ -1977,7 +1964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A8170-C326-48C9-9DB4-ACB9C17D90E1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,6 +3122,11 @@
         <v>257</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324925E8-8B32-4174-82E7-115230CAD99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F459C86-2BA5-4161-859A-80B08AC9D73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" activeTab="1" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
+    <workbookView xWindow="-27840" yWindow="1875" windowWidth="21600" windowHeight="11370" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
     <sheet name="busca_cesta" sheetId="6" r:id="rId1"/>
     <sheet name="produtos" sheetId="1" r:id="rId2"/>
-    <sheet name="busca_cesta_beta" sheetId="2" r:id="rId3"/>
-    <sheet name="mutiroes" sheetId="4" r:id="rId4"/>
-    <sheet name="info_nutricional" sheetId="3" r:id="rId5"/>
-    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId6"/>
+    <sheet name="mutiroes" sheetId="4" r:id="rId3"/>
+    <sheet name="info_nutricional" sheetId="3" r:id="rId4"/>
+    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="264">
   <si>
     <t>produto</t>
   </si>
@@ -176,9 +175,6 @@
     <t>colorau/pó de urucum</t>
   </si>
   <si>
-    <t>Débora/Humberto</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -197,9 +193,6 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>29/mai</t>
-  </si>
-  <si>
     <t>batata tupinambo/ alcachofra-girassol/ girassol-batateiro</t>
   </si>
   <si>
@@ -216,12 +209,6 @@
   </si>
   <si>
     <t>tomate cereja/ tomatinho</t>
-  </si>
-  <si>
-    <t>30/mai</t>
-  </si>
-  <si>
-    <t>preparo de novos canteiros</t>
   </si>
   <si>
     <t>pimenta-cambuci/ pimentão-chapéu-de-bispo</t>
@@ -835,9 +822,6 @@
     <t>almeirão</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>05/jun</t>
   </si>
   <si>
@@ -859,10 +843,10 @@
     <t>carro_2</t>
   </si>
   <si>
-    <t>corte de bambus para levar até a horta onde temos o tomate plantado</t>
-  </si>
-  <si>
-    <t>Andrea, Bernadete, Alex, Luiz, Ronaldo, Marina, Renato</t>
+    <t>05/jun.</t>
+  </si>
+  <si>
+    <t>utilização dos bambus cortados no mutirão anterior para escorar as mudas de tomate</t>
   </si>
 </sst>
 </file>
@@ -906,10 +890,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1243,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D2EF6-F046-402C-93FA-3D704C9CCEA4}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,65 +1245,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>53</v>
+      <c r="A3" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>263</v>
-      </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1333,9 +1305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="A1:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1403,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1450,7 +1422,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1458,7 +1430,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1485,7 +1457,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1493,7 +1465,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1520,7 +1492,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1563,7 +1535,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1579,7 +1551,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1630,7 +1602,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1654,7 +1626,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1748,7 +1720,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1810,7 +1782,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1821,96 +1793,13 @@
     <sortCondition ref="A35"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A844EE-D887-4A6B-B86C-B7C752CAF55A}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72601697-55EE-475A-BC70-2B6BB9EC57DD}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1925,40 +1814,30 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>60</v>
+      <c r="A3" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF289E3-7000-4F49-BDDB-76D25F29B57D}">
   <dimension ref="A1:F56"/>
   <sheetViews>
@@ -1969,1133 +1848,1133 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3">
+        <v>131</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="3">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="3">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="3">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="3">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="3">
+        <v>98</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="3">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="B17" s="3">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4">
-        <v>131</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="4">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="4">
-        <v>61</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="4">
-        <v>105</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="4">
-        <v>92</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="3">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="4">
-        <v>98</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="4">
-        <v>73</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="4">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="4" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="4">
-        <v>64</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f>1.05*100/70</f>
         <v>1.5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="C23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="3">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B25" s="3">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="3">
+        <v>310</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="3">
+        <v>88</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="3">
+        <v>569</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="3">
+        <v>343</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="3">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>74</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3">
+        <v>80</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="3">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="3">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="3">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="3">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="3">
+        <v>70</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3">
+        <v>47</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="3">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="3">
+        <v>32</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" s="4">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="E45" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" s="3">
+        <v>29</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="3">
+        <v>40</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="3">
+        <v>20</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3">
+        <v>16</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3">
+        <v>25</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="3">
+        <v>16</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="3">
+        <v>36</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="3">
+        <v>18</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="3">
         <v>4</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4.92</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="4">
-        <v>310</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="4">
-        <v>88</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="4">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B29" s="4">
-        <v>569</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="4">
-        <v>343</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="4">
-        <v>15</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4">
-        <v>74</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="4">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B33" s="4">
-        <v>52</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="4">
-        <v>54</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="4">
-        <v>13</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="4">
-        <v>49</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="4">
-        <v>44</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B37" s="4">
-        <v>70</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="4">
-        <v>8</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="4">
-        <v>47</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4">
-        <v>160</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="4">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="4">
-        <v>23</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="4">
-        <v>32</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="4">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B48" s="4">
-        <v>29</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="4">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="4">
-        <v>40</v>
-      </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="4">
-        <v>20</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="4">
-        <v>16</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="4">
-        <v>25</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F52" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="4">
-        <v>16</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="4">
-        <v>36</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="4">
-        <v>18</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="4">
-        <v>4</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +2983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139A8170-C326-48C9-9DB4-ACB9C17D90E1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3119,12 +2998,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F459C86-2BA5-4161-859A-80B08AC9D73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0F4D50-318D-490E-A40B-B565F585711B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27840" yWindow="1875" windowWidth="21600" windowHeight="11370" xr2:uid="{45442450-1535-414E-8E8C-F2E9142920AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="busca_cesta" sheetId="6" r:id="rId1"/>
-    <sheet name="produtos" sheetId="1" r:id="rId2"/>
+    <sheet name="produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="busca_cesta" sheetId="6" r:id="rId2"/>
     <sheet name="mutiroes" sheetId="4" r:id="rId3"/>
     <sheet name="info_nutricional" sheetId="3" r:id="rId4"/>
     <sheet name="info_nutricional_completar" sheetId="5" r:id="rId5"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="264">
   <si>
     <t>produto</t>
   </si>
@@ -1225,11 +1225,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C55">
+    <sortCondition ref="A35"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D2EF6-F046-402C-93FA-3D704C9CCEA4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,502 +1762,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C165D6F-8FA7-44DB-A078-36B533BEFB91}">
-  <dimension ref="A1:C55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="A1:C55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C55">
-    <sortCondition ref="A35"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mgik75uFZ/9N86mCqHtqM9QmFm3dQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7miRkUBhe/DTmKPlKK6kPO3udWn1yg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="264">
   <si>
     <t>produto</t>
   </si>
@@ -43,13 +43,22 @@
     <t>alecrim</t>
   </si>
   <si>
+    <t>alface americana</t>
+  </si>
+  <si>
     <t>alface crespa</t>
   </si>
   <si>
+    <t>alface lisa</t>
+  </si>
+  <si>
     <t>alfavaca</t>
   </si>
   <si>
     <t>alho poró</t>
+  </si>
+  <si>
+    <t>almeirão catalina</t>
   </si>
   <si>
     <t>amora</t>
@@ -1214,7 +1223,9 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1241,7 +1252,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -1268,16 +1281,18 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1349,7 +1364,7 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -1358,7 +1373,7 @@
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1369,7 +1384,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1378,14 +1393,16 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -1403,7 +1420,7 @@
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -1430,7 +1447,9 @@
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -1466,7 +1485,7 @@
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -1493,7 +1512,7 @@
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -1514,12 +1533,13 @@
       <c r="C36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -1540,13 +1560,15 @@
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -1582,7 +1604,9 @@
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -1600,7 +1624,7 @@
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -1627,7 +1651,7 @@
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -1636,7 +1660,7 @@
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -1672,7 +1696,7 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -1681,7 +1705,9 @@
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
@@ -1692,9 +1718,35 @@
       </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
     <row r="60" ht="15.75" customHeight="1"/>
     <row r="61" ht="15.75" customHeight="1"/>
     <row r="62" ht="15.75" customHeight="1"/>
@@ -2636,6 +2688,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
@@ -2668,10 +2722,10 @@
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -2679,10 +2733,10 @@
         <v>44359.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2690,10 +2744,10 @@
         <v>44366.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -2701,10 +2755,10 @@
         <v>44373.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -2712,10 +2766,10 @@
         <v>44380.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3730,10 +3784,10 @@
     <row r="2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -4753,22 +4807,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -4779,16 +4833,16 @@
         <v>32.0</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -4799,13 +4853,13 @@
         <v>11.0</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F3" s="18">
         <v>43.0</v>
@@ -4819,53 +4873,53 @@
         <v>131.0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B5" s="18">
         <v>14.0</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F6" s="18">
         <v>18.0</v>
@@ -4873,19 +4927,19 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B7" s="18">
         <v>61.0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F7" s="18">
         <v>12.0</v>
@@ -4893,19 +4947,19 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18">
         <v>43.0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F8" s="18">
         <v>21.0</v>
@@ -4913,19 +4967,19 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F9" s="18">
         <v>26.0</v>
@@ -4933,53 +4987,53 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" s="18">
         <v>105.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B11" s="18">
         <v>92.0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="18">
         <v>98.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" s="18">
         <v>2.0</v>
@@ -4988,12 +5042,12 @@
         <v>26.0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B13" s="18">
         <v>73.0</v>
@@ -5002,10 +5056,10 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F13" s="18">
         <v>4.0</v>
@@ -5013,19 +5067,19 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F14" s="18">
         <v>102.0</v>
@@ -5033,59 +5087,59 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="18">
         <v>43.0</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="18">
         <v>34.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B17" s="18">
         <v>75.0</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F17" s="18">
         <v>2147.0</v>
@@ -5093,70 +5147,70 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C18" s="18">
         <v>1.0</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" s="18">
         <v>32.0</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B20" s="18">
         <v>64.0</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E20" s="18">
         <v>10.0</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C21" s="18">
         <f>1.05*100/70</f>
@@ -5166,7 +5220,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F21" s="18">
         <v>45.0</v>
@@ -5174,19 +5228,19 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="18">
         <v>23.0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="18">
         <v>27.0</v>
@@ -5194,19 +5248,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F23" s="18">
         <v>2.0</v>
@@ -5214,33 +5268,33 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B24" s="18">
         <v>32.0</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D24" s="18">
         <v>4.0</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25" s="18">
         <v>25.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D25" s="18">
         <v>2.0</v>
@@ -5249,84 +5303,84 @@
         <v>4.92</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" s="18">
         <v>310.0</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B27" s="18">
         <v>88.0</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" s="18">
         <v>23.0</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B29" s="18">
         <v>569.0</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F29" s="18">
         <v>39.0</v>
@@ -5334,19 +5388,19 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B30" s="18">
         <v>343.0</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D30" s="18">
         <v>15.0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F30" s="18">
         <v>0.0</v>
@@ -5354,19 +5408,19 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="18">
         <v>74.0</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F31" s="18">
         <v>2.0</v>
@@ -5374,19 +5428,19 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="18">
         <v>80.0</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D32" s="18">
         <v>2.0</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F32" s="18">
         <v>5.0</v>
@@ -5394,59 +5448,59 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B33" s="18">
         <v>52.0</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B34" s="18">
         <v>54.0</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E34" s="18">
         <v>13.0</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B35" s="18">
         <v>49.0</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D35" s="18">
         <v>0.0</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F35" s="18">
         <v>12.0</v>
@@ -5454,159 +5508,159 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" s="18">
         <v>44.0</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B37" s="18">
         <v>70.0</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D37" s="18">
         <v>8.0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39" s="18">
         <v>47.0</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D40" s="18">
         <v>0.0</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41" s="18">
         <v>160.0</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42" s="18">
         <v>60.0</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43" s="18">
         <v>23.0</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F43" s="18">
         <v>18.0</v>
@@ -5614,99 +5668,99 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45" s="18">
         <v>32.0</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D45" s="18">
         <v>2.0</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E46" s="18">
         <v>5.0</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B48" s="18">
         <v>29.0</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F48" s="18">
         <v>165.0</v>
@@ -5714,7 +5768,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B49" s="18">
         <v>40.0</v>
@@ -5723,10 +5777,10 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F49" s="18">
         <v>160.0</v>
@@ -5734,59 +5788,59 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50" s="18">
         <v>20.0</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51" s="18">
         <v>16.0</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52" s="18">
         <v>25.0</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F52" s="18">
         <v>15.0</v>
@@ -5794,39 +5848,39 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53" s="18">
         <v>16.0</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54" s="18">
         <v>36.0</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F54" s="18">
         <v>133.0</v>
@@ -5834,42 +5888,42 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55" s="18">
         <v>18.0</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E56" s="18">
         <v>4.0</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -13448,17 +13502,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7miRkUBhe/DTmKPlKK6kPO3udWn1yg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mgwqZ+dxEsbIHL9z7PuPaW5wpNZAQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="263">
   <si>
     <t>produto</t>
   </si>
@@ -214,19 +214,16 @@
     <t>carro_2</t>
   </si>
   <si>
-    <t>Cláudia</t>
-  </si>
-  <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>Josiane</t>
   </si>
   <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Ana Carolina</t>
+  </si>
+  <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>Ana Carolina</t>
   </si>
   <si>
     <t>objetivo</t>
@@ -1223,9 +1220,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1252,9 +1247,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -1290,9 +1283,6 @@
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1400,9 +1390,7 @@
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -1447,9 +1435,7 @@
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
@@ -1566,9 +1552,6 @@
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -1604,9 +1587,7 @@
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -1705,9 +1686,7 @@
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
@@ -1725,9 +1704,7 @@
       <c r="B57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
@@ -2730,7 +2707,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8">
-        <v>44359.0</v>
+        <v>44366.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>64</v>
@@ -2741,7 +2718,7 @@
     </row>
     <row r="4">
       <c r="A4" s="8">
-        <v>44366.0</v>
+        <v>44373.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>66</v>
@@ -2751,27 +2728,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
-        <v>44373.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="9">
+        <v>44380.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9">
-        <v>44380.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3751,7 +3718,6 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
@@ -3784,10 +3750,10 @@
     <row r="2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -4807,22 +4773,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -4833,16 +4799,16 @@
         <v>32.0</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -4853,13 +4819,13 @@
         <v>11.0</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="F3" s="18">
         <v>43.0</v>
@@ -4873,36 +4839,36 @@
         <v>131.0</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="18">
         <v>14.0</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -4910,16 +4876,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="F6" s="18">
         <v>18.0</v>
@@ -4927,19 +4893,19 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="18">
         <v>61.0</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="F7" s="18">
         <v>12.0</v>
@@ -4953,13 +4919,13 @@
         <v>43.0</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="F8" s="18">
         <v>21.0</v>
@@ -4970,16 +4936,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="F9" s="18">
         <v>26.0</v>
@@ -4987,53 +4953,53 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="18">
         <v>105.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="18">
         <v>92.0</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="18">
         <v>98.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="18">
         <v>2.0</v>
@@ -5042,12 +5008,12 @@
         <v>26.0</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="18">
         <v>73.0</v>
@@ -5056,10 +5022,10 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="F13" s="18">
         <v>4.0</v>
@@ -5067,19 +5033,19 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="F14" s="18">
         <v>102.0</v>
@@ -5093,16 +5059,16 @@
         <v>43.0</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -5113,33 +5079,33 @@
         <v>34.0</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="18">
         <v>75.0</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="F17" s="18">
         <v>2147.0</v>
@@ -5150,19 +5116,19 @@
         <v>23</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="18">
         <v>1.0</v>
       </c>
       <c r="D18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19">
@@ -5173,44 +5139,44 @@
         <v>32.0</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="18">
         <v>64.0</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="18">
         <v>10.0</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="C21" s="18">
         <f>1.05*100/70</f>
@@ -5220,7 +5186,7 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="18">
         <v>45.0</v>
@@ -5234,13 +5200,13 @@
         <v>23.0</v>
       </c>
       <c r="C22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="F22" s="18">
         <v>27.0</v>
@@ -5248,19 +5214,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="F23" s="18">
         <v>2.0</v>
@@ -5268,22 +5234,22 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="18">
         <v>32.0</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="18">
         <v>4.0</v>
       </c>
       <c r="E24" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -5294,7 +5260,7 @@
         <v>25.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="18">
         <v>2.0</v>
@@ -5303,47 +5269,47 @@
         <v>4.92</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="18">
         <v>310.0</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="18">
         <v>88.0</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -5354,33 +5320,33 @@
         <v>23.0</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="18">
         <v>569.0</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="F29" s="18">
         <v>39.0</v>
@@ -5388,19 +5354,19 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="18">
         <v>343.0</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="18">
         <v>15.0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="18">
         <v>0.0</v>
@@ -5414,13 +5380,13 @@
         <v>74.0</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="F31" s="18">
         <v>2.0</v>
@@ -5434,13 +5400,13 @@
         <v>80.0</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="18">
         <v>2.0</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F32" s="18">
         <v>5.0</v>
@@ -5448,59 +5414,59 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="18">
         <v>52.0</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="18">
         <v>54.0</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" s="18">
         <v>13.0</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="18">
         <v>49.0</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35" s="18">
         <v>0.0</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="18">
         <v>12.0</v>
@@ -5514,36 +5480,36 @@
         <v>44.0</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>200</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="18">
         <v>70.0</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" s="18">
         <v>8.0</v>
       </c>
       <c r="E37" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>204</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -5551,19 +5517,19 @@
         <v>43</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="E38" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -5574,36 +5540,36 @@
         <v>47.0</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="E39" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>213</v>
       </c>
       <c r="D40" s="18">
         <v>0.0</v>
       </c>
       <c r="E40" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -5614,16 +5580,16 @@
         <v>160.0</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -5634,16 +5600,16 @@
         <v>60.0</v>
       </c>
       <c r="C42" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="F42" s="18" t="s">
         <v>220</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -5654,13 +5620,13 @@
         <v>23.0</v>
       </c>
       <c r="C43" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="F43" s="18">
         <v>18.0</v>
@@ -5668,22 +5634,22 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="C44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -5694,16 +5660,16 @@
         <v>32.0</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45" s="18">
         <v>2.0</v>
       </c>
       <c r="E45" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -5711,19 +5677,19 @@
         <v>51</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="E46" s="18">
         <v>5.0</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -5731,36 +5697,36 @@
         <v>52</v>
       </c>
       <c r="B47" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="D47" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="E47" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="F47" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B48" s="18">
         <v>29.0</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="F48" s="18">
         <v>165.0</v>
@@ -5768,7 +5734,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" s="18">
         <v>40.0</v>
@@ -5777,10 +5743,10 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F49" s="18">
         <v>160.0</v>
@@ -5794,16 +5760,16 @@
         <v>20.0</v>
       </c>
       <c r="C50" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="18" t="s">
+      <c r="F50" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5814,16 +5780,16 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5834,13 +5800,13 @@
         <v>25.0</v>
       </c>
       <c r="C52" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>250</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>251</v>
       </c>
       <c r="F52" s="18">
         <v>15.0</v>
@@ -5854,16 +5820,16 @@
         <v>16.0</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5874,13 +5840,13 @@
         <v>36.0</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="F54" s="18">
         <v>133.0</v>
@@ -5894,36 +5860,36 @@
         <v>18.0</v>
       </c>
       <c r="C55" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="18" t="s">
+      <c r="F55" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>260</v>
-      </c>
       <c r="C56" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="E56" s="18">
         <v>4.0</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -13502,12 +13468,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233CA3B2-BD9B-4E89-A090-128E5988363D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13E9CA5-8D18-400F-BC51-C32110227B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="mutiroes" sheetId="3" r:id="rId3"/>
     <sheet name="info_nutricional" sheetId="4" r:id="rId4"/>
     <sheet name="info_nutricional_completar" sheetId="5" r:id="rId5"/>
+    <sheet name="hist_plantios" sheetId="8" r:id="rId6"/>
+    <sheet name="hist_mutiroes" sheetId="7" r:id="rId7"/>
+    <sheet name="hist_cestas" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="285">
   <si>
     <t>produto</t>
   </si>
@@ -862,6 +865,54 @@
   </si>
   <si>
     <t xml:space="preserve"> Voluntários avisar no grupo (máx. 3 pessoas)</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>couve</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>melaço</t>
+  </si>
+  <si>
+    <t>corte de bambus para utilização no novo canteiro de tomate/vagem</t>
+  </si>
+  <si>
+    <t>aplicação dos bambus cortados no mutirão anterior nos canteiros</t>
+  </si>
+  <si>
+    <t>período</t>
+  </si>
+  <si>
+    <t>12/06/21 a 19/06/21</t>
+  </si>
+  <si>
+    <t>20/06/21 a 27/06/21</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
+  </si>
+  <si>
+    <t>Débora</t>
+  </si>
+  <si>
+    <t>Ana Carolina</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>melaço de cana</t>
   </si>
 </sst>
 </file>
@@ -871,11 +922,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -920,6 +978,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -938,53 +1011,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3B46BE11-FF80-423F-81C8-84926D4C170A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1197,11 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1006"/>
+  <dimension ref="A1:D1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1267,9 +1346,7 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1287,9 +1364,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1316,9 +1391,7 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1336,9 +1409,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1431,9 +1502,7 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
@@ -1481,9 +1550,7 @@
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1492,9 +1559,7 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1521,9 +1586,7 @@
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1550,9 +1613,7 @@
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1674,158 +1735,160 @@
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2"/>
+      <c r="A49" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="3"/>
+      <c r="D52" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="22" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C64" s="3"/>
+    </row>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2768,6 +2831,7 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2776,9 +2840,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C996"/>
+  <dimension ref="A1:C995"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2803,33 +2869,33 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>44373</v>
+      <c r="A3" s="10">
+        <v>44380</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>44380</v>
+      <c r="A4" s="9">
+        <v>44387</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44387</v>
+        <v>44394</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>71</v>
@@ -2837,26 +2903,27 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44394</v>
+        <v>44401</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44408</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>44401</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3836,7 +3903,6 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3847,7 +3913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -14580,4 +14646,613 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF9FF76-6587-4A82-A1EA-3E210EA83BFC}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="25"/>
+    <col min="2" max="2" width="54.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>44346</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>44350</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>44345</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>44352</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>44359</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
+        <v>44366</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
+        <v>44373</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13E9CA5-8D18-400F-BC51-C32110227B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4EA68-059F-4B5F-BCFF-C46B5A300960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -1279,8 +1279,8 @@
   <dimension ref="A1:D1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1889,22 +1889,25 @@
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14824,8 +14827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4EA68-059F-4B5F-BCFF-C46B5A300960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492380D6-7BC3-4B46-B82D-026588C9F031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="285">
   <si>
     <t>produto</t>
   </si>
@@ -864,9 +864,6 @@
     <t>plantio em geral</t>
   </si>
   <si>
-    <t xml:space="preserve"> Voluntários avisar no grupo (máx. 3 pessoas)</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>melaço de cana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voluntários avisar no grupo (máx. 3 pessoas)</t>
   </si>
 </sst>
 </file>
@@ -1278,9 +1278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1319,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1346,7 +1348,9 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1364,7 +1368,9 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1409,7 +1415,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1502,7 +1510,9 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +1560,9 @@
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1702,7 +1714,9 @@
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1736,7 +1750,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1868,7 +1882,9 @@
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D62" s="5" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2862,7 @@
   <dimension ref="A1:C995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2876,10 +2892,10 @@
         <v>44380</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2887,10 +2903,10 @@
         <v>44387</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2909,7 +2925,7 @@
         <v>44401</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>69</v>
@@ -2920,7 +2936,7 @@
         <v>44408</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>71</v>
@@ -3916,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3950,7 +3966,29 @@
         <v>267</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>268</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>44395</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>44409</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14656,7 +14694,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14668,15 +14706,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>21</v>
@@ -14684,7 +14722,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>49</v>
@@ -14692,7 +14730,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>64</v>
@@ -14700,7 +14738,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>22</v>
@@ -14708,7 +14746,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>26</v>
@@ -14716,7 +14754,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>54</v>
@@ -14724,7 +14762,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>60</v>
@@ -14732,7 +14770,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>61</v>
@@ -14740,7 +14778,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>62</v>
@@ -14748,7 +14786,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>64</v>
@@ -14777,7 +14815,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>72</v>
@@ -14788,7 +14826,7 @@
         <v>44346</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14796,7 +14834,7 @@
         <v>44350</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14840,10 +14878,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>269</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14907,7 +14945,7 @@
         <v>44345</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14939,7 +14977,7 @@
         <v>44352</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15091,7 +15129,7 @@
         <v>44359</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -15131,7 +15169,7 @@
         <v>44366</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5442C479-C7DB-40A7-A97A-DAD10281F23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06036F5-4705-40AC-A5EF-AE4F1E35F784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22515" yWindow="1665" windowWidth="21600" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="1545" windowWidth="21600" windowHeight="13215" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="285">
   <si>
     <t>produto</t>
   </si>
@@ -894,12 +894,6 @@
     <t>20/06/21 a 27/06/21</t>
   </si>
   <si>
-    <t>Bernadete</t>
-  </si>
-  <si>
-    <t>Débora</t>
-  </si>
-  <si>
     <t>Ana Carolina</t>
   </si>
   <si>
@@ -915,7 +909,10 @@
     <t>plantio em geral (confirmar o que foi plantado)</t>
   </si>
   <si>
-    <t>chicória</t>
+    <t>escarola</t>
+  </si>
+  <si>
+    <t>batata doce</t>
   </si>
 </sst>
 </file>
@@ -925,11 +922,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1023,50 +1027,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1284,11 +1289,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1008"/>
+  <dimension ref="A1:D1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1399,9 +1404,7 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1419,9 +1422,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1460,40 +1461,36 @@
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="A18" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -1502,7 +1499,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1511,50 +1508,46 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -1563,7 +1556,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1572,29 +1565,25 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -1603,36 +1592,34 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -1641,25 +1628,25 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -1668,7 +1655,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -1677,7 +1664,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
@@ -1686,7 +1673,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
@@ -1694,43 +1681,43 @@
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -1739,198 +1726,202 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2"/>
+      <c r="A51" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="3"/>
+      <c r="D54" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="21" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+    </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2872,6 +2863,7 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2880,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C994"/>
+  <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2910,48 +2902,38 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44387</v>
+        <v>44394</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44394</v>
+        <v>44401</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>44408</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>44401</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44408</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3931,7 +3913,6 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3976,7 +3957,7 @@
         <v>267</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,7 +3968,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14693,7 +14674,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14802,7 +14783,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14841,7 +14822,7 @@
         <v>44381</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -14868,10 +14849,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15385,6 +15366,89 @@
         <v>32</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="25">
+        <v>44380</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
+        <v>44387</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06036F5-4705-40AC-A5EF-AE4F1E35F784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98C1E37-DB2E-465F-828C-7DFF711B8CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="1545" windowWidth="21600" windowHeight="13215" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="289">
   <si>
     <t>produto</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Ana Beatriz</t>
-  </si>
-  <si>
-    <t>Josiane</t>
   </si>
   <si>
     <t>???</t>
@@ -913,6 +910,21 @@
   </si>
   <si>
     <t>batata doce</t>
+  </si>
+  <si>
+    <t>11/07/21 a 18/07/21</t>
+  </si>
+  <si>
+    <t>cenoura</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
+  </si>
+  <si>
+    <t>Bernadete, Ronaldo, Luiz</t>
   </si>
 </sst>
 </file>
@@ -922,11 +934,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1027,51 +1046,53 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1291,9 +1312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1333,6 +1354,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1351,6 +1375,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1359,7 +1386,12 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1369,6 +1401,9 @@
         <v>5</v>
       </c>
       <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1378,6 +1413,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1395,7 +1433,9 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1404,7 +1444,9 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1462,7 +1504,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1483,10 +1525,10 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1523,9 +1565,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1538,12 +1578,14 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1579,7 +1621,9 @@
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1589,6 +1633,9 @@
         <v>5</v>
       </c>
       <c r="C31" s="2"/>
+      <c r="D31" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1615,7 +1662,9 @@
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1704,7 +1753,9 @@
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1741,9 +1792,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -1765,7 +1814,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1796,9 +1845,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1865,9 +1912,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -1877,9 +1922,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1898,18 +1941,16 @@
         <v>5</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -1918,23 +1959,30 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2923,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2905,10 +2953,10 @@
         <v>44394</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,7 +2964,7 @@
         <v>44401</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>69</v>
@@ -2927,10 +2975,10 @@
         <v>44408</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3924,7 +3972,7 @@
   <dimension ref="A1:C998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3943,21 +3991,21 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3965,10 +4013,10 @@
         <v>44409</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4979,22 +5027,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,16 +5053,16 @@
         <v>32</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5025,13 +5073,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="F3" s="17">
         <v>43</v>
@@ -5045,36 +5093,36 @@
         <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="17">
         <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,16 +5130,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="F6" s="17">
         <v>18</v>
@@ -5099,19 +5147,19 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="17">
         <v>61</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="F7" s="17">
         <v>12</v>
@@ -5125,13 +5173,13 @@
         <v>43</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="F8" s="17">
         <v>21</v>
@@ -5142,16 +5190,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="F9" s="17">
         <v>26</v>
@@ -5159,53 +5207,53 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="17">
         <v>105</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="17">
         <v>92</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="17">
         <v>98</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="17">
         <v>2</v>
@@ -5214,12 +5262,12 @@
         <v>26</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="17">
         <v>73</v>
@@ -5228,10 +5276,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="F13" s="17">
         <v>4</v>
@@ -5239,19 +5287,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="F14" s="17">
         <v>102</v>
@@ -5265,16 +5313,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,33 +5333,33 @@
         <v>34</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="17">
         <v>75</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="F17" s="17">
         <v>2147</v>
@@ -5322,19 +5370,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,44 +5393,44 @@
         <v>32</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="17">
         <v>64</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="17">
         <v>10</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="C21" s="17">
         <f>1.05*100/70</f>
@@ -5392,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" s="17">
         <v>45</v>
@@ -5406,13 +5454,13 @@
         <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="F22" s="17">
         <v>27</v>
@@ -5420,19 +5468,19 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="F23" s="17">
         <v>2</v>
@@ -5440,22 +5488,22 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="17">
         <v>32</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="17">
         <v>4</v>
       </c>
       <c r="E24" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5466,7 +5514,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="17">
         <v>2</v>
@@ -5475,47 +5523,47 @@
         <v>4.92</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="17">
         <v>310</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="17">
         <v>88</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="F27" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5526,33 +5574,33 @@
         <v>23</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="17">
         <v>569</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="F29" s="17">
         <v>39</v>
@@ -5560,19 +5608,19 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="17">
         <v>343</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="17">
         <v>15</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="17">
         <v>0</v>
@@ -5586,13 +5634,13 @@
         <v>74</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="F31" s="17">
         <v>2</v>
@@ -5606,13 +5654,13 @@
         <v>80</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="17">
         <v>2</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="17">
         <v>5</v>
@@ -5620,59 +5668,59 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="17">
         <v>52</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="17">
         <v>54</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34" s="17">
         <v>13</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="17">
         <v>49</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D35" s="17">
         <v>0</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F35" s="17">
         <v>12</v>
@@ -5686,36 +5734,36 @@
         <v>44</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="17">
         <v>70</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="17">
         <v>8</v>
       </c>
       <c r="E37" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5723,19 +5771,19 @@
         <v>45</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>210</v>
-      </c>
       <c r="E38" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5746,36 +5794,36 @@
         <v>47</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E39" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
       </c>
       <c r="E40" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5786,16 +5834,16 @@
         <v>160</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="F41" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5806,16 +5854,16 @@
         <v>60</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="F42" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5826,13 +5874,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="F43" s="17">
         <v>18</v>
@@ -5840,22 +5888,22 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="17" t="s">
+      <c r="F44" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5866,16 +5914,16 @@
         <v>32</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" s="17">
         <v>2</v>
       </c>
       <c r="E45" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5883,19 +5931,19 @@
         <v>55</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="D46" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="E46" s="17">
         <v>5</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5903,36 +5951,36 @@
         <v>56</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="E47" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="F47" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="17">
         <v>29</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="F48" s="17">
         <v>165</v>
@@ -5940,7 +5988,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B49" s="17">
         <v>40</v>
@@ -5949,10 +5997,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F49" s="17">
         <v>160</v>
@@ -5966,16 +6014,16 @@
         <v>20</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="17" t="s">
+      <c r="F50" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5986,16 +6034,16 @@
         <v>16</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,13 +6054,13 @@
         <v>25</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>254</v>
       </c>
       <c r="F52" s="17">
         <v>15</v>
@@ -6026,16 +6074,16 @@
         <v>16</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6046,13 +6094,13 @@
         <v>36</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="F54" s="17">
         <v>133</v>
@@ -6066,36 +6114,36 @@
         <v>18</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="F55" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>263</v>
-      </c>
       <c r="C56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="E56" s="17">
         <v>4</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13670,12 +13718,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -14671,30 +14719,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>21</v>
@@ -14702,7 +14750,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>49</v>
@@ -14710,7 +14758,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>64</v>
@@ -14718,7 +14766,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>22</v>
@@ -14726,7 +14774,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>26</v>
@@ -14734,7 +14782,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>54</v>
@@ -14742,7 +14790,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>60</v>
@@ -14750,7 +14798,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>61</v>
@@ -14758,7 +14806,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>62</v>
@@ -14766,11 +14814,78 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14795,10 +14910,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14806,7 +14921,7 @@
         <v>44346</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14814,7 +14929,7 @@
         <v>44350</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14822,7 +14937,7 @@
         <v>44381</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -14851,7 +14966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -14864,10 +14979,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14931,7 +15046,7 @@
         <v>44345</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14963,7 +15078,7 @@
         <v>44352</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15115,7 +15230,7 @@
         <v>44359</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -15155,7 +15270,7 @@
         <v>44366</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -15187,7 +15302,7 @@
         <v>44366</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -15371,7 +15486,7 @@
         <v>44380</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -15403,7 +15518,7 @@
         <v>44387</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98C1E37-DB2E-465F-828C-7DFF711B8CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD195FC6-8AB9-49C4-A498-B7531CD022B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="286">
   <si>
     <t>produto</t>
   </si>
@@ -903,9 +903,6 @@
     <t xml:space="preserve"> voluntários avisar no grupo (máx. 3 pessoas)</t>
   </si>
   <si>
-    <t>plantio em geral (confirmar o que foi plantado)</t>
-  </si>
-  <si>
     <t>escarola</t>
   </si>
   <si>
@@ -916,12 +913,6 @@
   </si>
   <si>
     <t>cenoura</t>
-  </si>
-  <si>
-    <t>Bernadete</t>
-  </si>
-  <si>
-    <t>Cláudia</t>
   </si>
   <si>
     <t>Bernadete, Ronaldo, Luiz</t>
@@ -934,11 +925,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1046,53 +1044,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1313,8 +1312,8 @@
   <dimension ref="A1:D1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1386,9 +1385,7 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -1433,9 +1430,7 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1444,9 +1439,7 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1504,7 +1497,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1525,9 +1518,7 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,14 +1569,12 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1621,9 +1610,7 @@
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1662,9 +1649,7 @@
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1753,9 +1738,7 @@
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1961,7 +1944,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>5</v>
@@ -2920,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C993"/>
+  <dimension ref="A1:C992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2950,37 +2933,27 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44394</v>
+        <v>44401</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44401</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
         <v>44408</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3960,7 +3933,6 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3972,7 +3944,7 @@
   <dimension ref="A1:C998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4005,7 +3977,7 @@
         <v>266</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14719,10 +14691,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B20" sqref="B20:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14822,7 +14794,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>32</v>
@@ -14830,15 +14802,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>284</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>60</v>
@@ -14846,7 +14818,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>6</v>
@@ -14854,7 +14826,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>9</v>
@@ -14862,7 +14834,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>8</v>
@@ -14870,7 +14842,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>10</v>
@@ -14878,7 +14850,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -14886,6 +14858,28 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14898,7 +14892,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14937,12 +14931,18 @@
         <v>44381</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
@@ -14964,10 +14964,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B83" sqref="B74:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15486,7 +15486,7 @@
         <v>44380</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -15518,7 +15518,7 @@
         <v>44387</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -15562,7 +15562,87 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
+      <c r="A74" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <v>44394</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD195FC6-8AB9-49C4-A498-B7531CD022B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1B28A-A68D-4139-81FC-4D9C92B3D784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14895" yWindow="1995" windowWidth="21600" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="286">
   <si>
     <t>produto</t>
   </si>
@@ -1312,8 +1312,8 @@
   <dimension ref="A1:D1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1385,9 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1432,9 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1439,7 +1443,9 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1475,7 +1481,9 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1484,7 +1492,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1518,7 +1528,9 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,7 +1586,9 @@
       <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1610,7 +1624,9 @@
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1846,7 +1862,9 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -1923,7 +1941,9 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14967,7 +14987,7 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B83" sqref="B74:B83"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1B28A-A68D-4139-81FC-4D9C92B3D784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9679319-CF8B-40F5-904A-03F67A9E4672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="1995" windowWidth="21600" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1035" windowWidth="21600" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="285">
   <si>
     <t>produto</t>
   </si>
@@ -913,9 +913,6 @@
   </si>
   <si>
     <t>cenoura</t>
-  </si>
-  <si>
-    <t>Bernadete, Ronaldo, Luiz</t>
   </si>
 </sst>
 </file>
@@ -1312,8 +1309,8 @@
   <dimension ref="A1:D1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1385,9 +1382,7 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1394,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -3961,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C998"/>
+  <dimension ref="A1:C997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3991,26 +3988,16 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
-        <v>44394</v>
+        <v>44409</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>266</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>44409</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="13" t="s">
         <v>280</v>
       </c>
     </row>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4990,7 +4977,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9679319-CF8B-40F5-904A-03F67A9E4672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C459C263-4AC6-4427-9660-D5688C693534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1035" windowWidth="21600" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="283">
   <si>
     <t>produto</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>carro_2</t>
-  </si>
-  <si>
-    <t>Ana Beatriz</t>
   </si>
   <si>
     <t>???</t>
@@ -889,9 +886,6 @@
   </si>
   <si>
     <t>20/06/21 a 27/06/21</t>
-  </si>
-  <si>
-    <t>Ana Carolina</t>
   </si>
   <si>
     <t>Renato</t>
@@ -922,11 +916,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1041,53 +1042,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1308,9 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1394,9 +1396,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1429,9 +1429,7 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1440,9 +1438,7 @@
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1478,9 +1474,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1489,9 +1483,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1504,7 +1496,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1525,9 +1517,7 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,14 +1568,12 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1621,9 +1609,7 @@
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1810,7 +1796,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1859,9 +1845,7 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -1938,9 +1922,7 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,7 +1943,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>5</v>
@@ -2920,9 +2902,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C992"/>
+  <dimension ref="A1:C991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2948,28 +2930,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44401</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>44408</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>44408</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3949,7 +3921,6 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3980,10 +3951,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3991,10 +3962,10 @@
         <v>44409</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5005,22 +4976,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5031,16 +5002,16 @@
         <v>32</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5051,13 +5022,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="F3" s="17">
         <v>43</v>
@@ -5071,36 +5042,36 @@
         <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17">
         <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5108,16 +5079,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="F6" s="17">
         <v>18</v>
@@ -5125,19 +5096,19 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="17">
         <v>61</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="F7" s="17">
         <v>12</v>
@@ -5151,13 +5122,13 @@
         <v>43</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="17">
         <v>21</v>
@@ -5168,16 +5139,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="F9" s="17">
         <v>26</v>
@@ -5185,53 +5156,53 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="17">
         <v>105</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="17">
         <v>92</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="17">
         <v>98</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="17">
         <v>2</v>
@@ -5240,12 +5211,12 @@
         <v>26</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="17">
         <v>73</v>
@@ -5254,10 +5225,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="F13" s="17">
         <v>4</v>
@@ -5265,19 +5236,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="F14" s="17">
         <v>102</v>
@@ -5291,16 +5262,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5311,33 +5282,33 @@
         <v>34</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="17">
         <v>75</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="F17" s="17">
         <v>2147</v>
@@ -5348,19 +5319,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5371,44 +5342,44 @@
         <v>32</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="17">
         <v>64</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="17">
         <v>10</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="C21" s="17">
         <f>1.05*100/70</f>
@@ -5418,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" s="17">
         <v>45</v>
@@ -5432,13 +5403,13 @@
         <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="F22" s="17">
         <v>27</v>
@@ -5446,19 +5417,19 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="F23" s="17">
         <v>2</v>
@@ -5466,22 +5437,22 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="17">
         <v>32</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="17">
         <v>4</v>
       </c>
       <c r="E24" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5492,7 +5463,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="17">
         <v>2</v>
@@ -5501,47 +5472,47 @@
         <v>4.92</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="17">
         <v>310</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="17">
         <v>88</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="F27" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5552,33 +5523,33 @@
         <v>23</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="17">
         <v>569</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="F29" s="17">
         <v>39</v>
@@ -5586,19 +5557,19 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="17">
         <v>343</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="17">
         <v>15</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" s="17">
         <v>0</v>
@@ -5612,13 +5583,13 @@
         <v>74</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="F31" s="17">
         <v>2</v>
@@ -5632,13 +5603,13 @@
         <v>80</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="17">
         <v>2</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="17">
         <v>5</v>
@@ -5646,59 +5617,59 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="17">
         <v>52</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="17">
         <v>54</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" s="17">
         <v>13</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="17">
         <v>49</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" s="17">
         <v>0</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="17">
         <v>12</v>
@@ -5712,36 +5683,36 @@
         <v>44</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="17">
         <v>70</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="17">
         <v>8</v>
       </c>
       <c r="E37" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5749,19 +5720,19 @@
         <v>45</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>209</v>
-      </c>
       <c r="E38" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5772,36 +5743,36 @@
         <v>47</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="E39" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
       </c>
       <c r="E40" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,16 +5783,16 @@
         <v>160</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="F41" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5832,16 +5803,16 @@
         <v>60</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="F42" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,13 +5823,13 @@
         <v>23</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="F43" s="17">
         <v>18</v>
@@ -5866,22 +5837,22 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="17" t="s">
+      <c r="F44" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5892,16 +5863,16 @@
         <v>32</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" s="17">
         <v>2</v>
       </c>
       <c r="E45" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,19 +5880,19 @@
         <v>55</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="D46" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="E46" s="17">
         <v>5</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5929,36 +5900,36 @@
         <v>56</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="E47" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="F47" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" s="17">
         <v>29</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="F48" s="17">
         <v>165</v>
@@ -5966,7 +5937,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B49" s="17">
         <v>40</v>
@@ -5975,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F49" s="17">
         <v>160</v>
@@ -5992,16 +5963,16 @@
         <v>20</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="17" t="s">
+      <c r="F50" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6012,16 +5983,16 @@
         <v>16</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,13 +6003,13 @@
         <v>25</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="F52" s="17">
         <v>15</v>
@@ -6052,16 +6023,16 @@
         <v>16</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6072,13 +6043,13 @@
         <v>36</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="F54" s="17">
         <v>133</v>
@@ -6092,36 +6063,36 @@
         <v>18</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="F55" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>262</v>
-      </c>
       <c r="C56" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="E56" s="17">
         <v>4</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13696,12 +13667,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -14712,15 +14683,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>21</v>
@@ -14728,7 +14699,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>49</v>
@@ -14736,7 +14707,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>64</v>
@@ -14744,7 +14715,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>22</v>
@@ -14752,7 +14723,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>26</v>
@@ -14760,7 +14731,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>54</v>
@@ -14768,7 +14739,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>60</v>
@@ -14776,7 +14747,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>61</v>
@@ -14784,7 +14755,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>62</v>
@@ -14792,7 +14763,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>64</v>
@@ -14800,7 +14771,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>32</v>
@@ -14808,15 +14779,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>60</v>
@@ -14824,7 +14795,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>6</v>
@@ -14832,7 +14803,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>9</v>
@@ -14840,7 +14811,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>8</v>
@@ -14848,7 +14819,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>10</v>
@@ -14856,7 +14827,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -14910,10 +14881,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14921,7 +14892,7 @@
         <v>44346</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14929,7 +14900,7 @@
         <v>44350</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14937,7 +14908,7 @@
         <v>44381</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -14946,7 +14917,7 @@
         <v>44394</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -14970,10 +14941,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14985,10 +14956,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>267</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15052,7 +15023,7 @@
         <v>44345</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -15084,7 +15055,7 @@
         <v>44352</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15236,7 +15207,7 @@
         <v>44359</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -15276,7 +15247,7 @@
         <v>44366</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -15308,7 +15279,7 @@
         <v>44366</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -15492,7 +15463,7 @@
         <v>44380</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -15524,7 +15495,7 @@
         <v>44387</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -15604,7 +15575,7 @@
         <v>44394</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -15648,7 +15619,103 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="31"/>
+      <c r="A84" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <v>44401</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C459C263-4AC6-4427-9660-D5688C693534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F77DB48-4444-43EF-ADF6-947E2C5FB917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="283">
   <si>
     <t>produto</t>
   </si>
@@ -82,9 +82,6 @@
     <t>alho poró</t>
   </si>
   <si>
-    <t>almeirão catalona</t>
-  </si>
-  <si>
     <t>amora</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
   </si>
   <si>
     <t>carro_2</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>objetivo</t>
@@ -907,6 +901,12 @@
   </si>
   <si>
     <t>cenoura</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
+  </si>
+  <si>
+    <t>cogumelo shimeji (produção do Yuri)</t>
   </si>
 </sst>
 </file>
@@ -916,11 +916,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1042,53 +1049,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1308,9 +1316,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1009"/>
+  <dimension ref="A1:D1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1384,7 +1392,9 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -1429,20 +1439,24 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -1451,16 +1465,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -1469,7 +1485,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1478,7 +1494,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -1487,7 +1503,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -1496,14 +1512,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -1512,7 +1528,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -1522,7 +1538,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -1531,7 +1547,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1540,7 +1556,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1549,7 +1565,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -1559,7 +1575,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -1568,25 +1584,27 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B26" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1595,7 +1613,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -1604,355 +1622,369 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2"/>
+      <c r="A52" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="3"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="21" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="5"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="21"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="5"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B67" s="13" t="s">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2894,6 +2926,7 @@
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2904,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2924,10 +2957,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,10 +2968,10 @@
         <v>44408</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3951,10 +3984,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3962,10 +3995,10 @@
         <v>44409</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4976,22 +5009,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5002,16 +5035,16 @@
         <v>32</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5022,13 +5055,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="F3" s="17">
         <v>43</v>
@@ -5042,36 +5075,36 @@
         <v>131</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="17">
         <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5079,16 +5112,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="F6" s="17">
         <v>18</v>
@@ -5096,19 +5129,19 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="17">
         <v>61</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="F7" s="17">
         <v>12</v>
@@ -5116,19 +5149,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="17">
         <v>43</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="F8" s="17">
         <v>21</v>
@@ -5136,19 +5169,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="F9" s="17">
         <v>26</v>
@@ -5156,53 +5189,53 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="17">
         <v>105</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="17">
         <v>92</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="17">
         <v>98</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="17">
         <v>2</v>
@@ -5211,12 +5244,12 @@
         <v>26</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="17">
         <v>73</v>
@@ -5225,10 +5258,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="17">
         <v>4</v>
@@ -5236,19 +5269,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="F14" s="17">
         <v>102</v>
@@ -5256,59 +5289,59 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="17">
         <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="17">
         <v>34</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="17">
         <v>75</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="F17" s="17">
         <v>2147</v>
@@ -5316,70 +5349,70 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="17">
         <v>32</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="17">
         <v>64</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="17">
         <v>10</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="17">
         <f>1.05*100/70</f>
@@ -5389,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F21" s="17">
         <v>45</v>
@@ -5397,19 +5430,19 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="17">
         <v>23</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F22" s="17">
         <v>27</v>
@@ -5417,19 +5450,19 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="D23" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="F23" s="17">
         <v>2</v>
@@ -5437,33 +5470,33 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="17">
         <v>32</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D24" s="17">
         <v>4</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="17">
         <v>25</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D25" s="17">
         <v>2</v>
@@ -5472,84 +5505,84 @@
         <v>4.92</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" s="17">
         <v>310</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" s="17">
         <v>88</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="F27" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="17">
         <v>23</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" s="17">
         <v>569</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="F29" s="17">
         <v>39</v>
@@ -5557,19 +5590,19 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="17">
         <v>343</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="17">
         <v>15</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F30" s="17">
         <v>0</v>
@@ -5577,19 +5610,19 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="17">
         <v>74</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="F31" s="17">
         <v>2</v>
@@ -5597,19 +5630,19 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="17">
         <v>80</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D32" s="17">
         <v>2</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F32" s="17">
         <v>5</v>
@@ -5617,59 +5650,59 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B33" s="17">
         <v>52</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B34" s="17">
         <v>54</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E34" s="17">
         <v>13</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" s="17">
         <v>49</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D35" s="17">
         <v>0</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F35" s="17">
         <v>12</v>
@@ -5677,159 +5710,159 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="17">
         <v>44</v>
       </c>
       <c r="C36" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>200</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B37" s="17">
         <v>70</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D37" s="17">
         <v>8</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="17">
         <v>47</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="F39" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="17">
         <v>160</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="17">
         <v>60</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="17">
         <v>23</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F43" s="17">
         <v>18</v>
@@ -5837,99 +5870,99 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="F44" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="17">
         <v>32</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D45" s="17">
         <v>2</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="E46" s="17">
         <v>5</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="E47" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="F47" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B48" s="17">
         <v>29</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F48" s="17">
         <v>165</v>
@@ -5937,7 +5970,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B49" s="17">
         <v>40</v>
@@ -5946,10 +5979,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F49" s="17">
         <v>160</v>
@@ -5957,59 +5990,59 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="17">
         <v>20</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="17">
         <v>16</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="17">
         <v>25</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F52" s="17">
         <v>15</v>
@@ -6017,39 +6050,39 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="17">
         <v>16</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="17">
         <v>36</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F54" s="17">
         <v>133</v>
@@ -6057,42 +6090,42 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="17">
         <v>18</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="17">
         <v>4</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13667,17 +13700,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14683,119 +14716,119 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>6</v>
@@ -14803,7 +14836,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>9</v>
@@ -14811,7 +14844,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>8</v>
@@ -14819,7 +14852,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>10</v>
@@ -14827,7 +14860,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>11</v>
@@ -14881,10 +14914,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14892,7 +14925,7 @@
         <v>44346</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14900,7 +14933,7 @@
         <v>44350</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14908,7 +14941,7 @@
         <v>44381</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -14917,7 +14950,7 @@
         <v>44394</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -14943,8 +14976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B95"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14956,10 +14989,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14975,7 +15008,7 @@
         <v>44345</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14983,7 +15016,7 @@
         <v>44345</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14991,7 +15024,7 @@
         <v>44345</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14999,7 +15032,7 @@
         <v>44345</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15007,7 +15040,7 @@
         <v>44345</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -15015,7 +15048,7 @@
         <v>44345</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -15023,7 +15056,7 @@
         <v>44345</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -15031,7 +15064,7 @@
         <v>44352</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -15047,7 +15080,7 @@
         <v>44352</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -15055,7 +15088,7 @@
         <v>44352</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15063,7 +15096,7 @@
         <v>44352</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -15071,7 +15104,7 @@
         <v>44352</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -15079,7 +15112,7 @@
         <v>44352</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -15087,7 +15120,7 @@
         <v>44352</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15095,7 +15128,7 @@
         <v>44352</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -15103,7 +15136,7 @@
         <v>44352</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -15111,7 +15144,7 @@
         <v>44352</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -15134,8 +15167,8 @@
       <c r="A23" s="25">
         <v>44359</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>14</v>
+      <c r="B23" s="33" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -15143,7 +15176,7 @@
         <v>44359</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -15151,7 +15184,7 @@
         <v>44359</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -15159,7 +15192,7 @@
         <v>44359</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -15167,7 +15200,7 @@
         <v>44359</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -15175,7 +15208,7 @@
         <v>44359</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -15183,7 +15216,7 @@
         <v>44359</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -15191,7 +15224,7 @@
         <v>44359</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -15199,7 +15232,7 @@
         <v>44359</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -15207,7 +15240,7 @@
         <v>44359</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -15215,7 +15248,7 @@
         <v>44366</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -15223,7 +15256,7 @@
         <v>44366</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -15238,8 +15271,8 @@
       <c r="A36" s="25">
         <v>44366</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>14</v>
+      <c r="B36" s="33" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -15247,7 +15280,7 @@
         <v>44366</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -15255,7 +15288,7 @@
         <v>44366</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -15263,7 +15296,7 @@
         <v>44366</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -15271,7 +15304,7 @@
         <v>44366</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -15279,7 +15312,7 @@
         <v>44366</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -15287,7 +15320,7 @@
         <v>44366</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -15311,7 +15344,7 @@
         <v>44373</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -15319,7 +15352,7 @@
         <v>44373</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -15327,7 +15360,7 @@
         <v>44373</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -15335,7 +15368,7 @@
         <v>44373</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -15343,7 +15376,7 @@
         <v>44373</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -15351,7 +15384,7 @@
         <v>44373</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -15359,7 +15392,7 @@
         <v>44373</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -15367,7 +15400,7 @@
         <v>44373</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -15399,7 +15432,7 @@
         <v>44380</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -15407,7 +15440,7 @@
         <v>44380</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -15415,7 +15448,7 @@
         <v>44380</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -15423,7 +15456,7 @@
         <v>44380</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -15431,7 +15464,7 @@
         <v>44380</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -15439,7 +15472,7 @@
         <v>44380</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -15447,7 +15480,7 @@
         <v>44380</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -15455,7 +15488,7 @@
         <v>44380</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -15463,7 +15496,7 @@
         <v>44380</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -15471,7 +15504,7 @@
         <v>44387</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -15479,7 +15512,7 @@
         <v>44387</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -15487,7 +15520,7 @@
         <v>44387</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -15495,7 +15528,7 @@
         <v>44387</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -15503,7 +15536,7 @@
         <v>44387</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -15511,7 +15544,7 @@
         <v>44387</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -15519,7 +15552,7 @@
         <v>44387</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -15527,7 +15560,7 @@
         <v>44387</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -15535,7 +15568,7 @@
         <v>44387</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -15559,7 +15592,7 @@
         <v>44394</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -15567,7 +15600,7 @@
         <v>44394</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -15575,7 +15608,7 @@
         <v>44394</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -15583,7 +15616,7 @@
         <v>44394</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -15591,7 +15624,7 @@
         <v>44394</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -15599,7 +15632,7 @@
         <v>44394</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -15607,7 +15640,7 @@
         <v>44394</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -15615,7 +15648,7 @@
         <v>44394</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -15639,7 +15672,7 @@
         <v>44401</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -15647,7 +15680,7 @@
         <v>44401</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -15655,7 +15688,7 @@
         <v>44401</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -15663,7 +15696,7 @@
         <v>44401</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -15671,7 +15704,7 @@
         <v>44401</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -15679,7 +15712,7 @@
         <v>44401</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -15687,7 +15720,7 @@
         <v>44401</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -15695,7 +15728,7 @@
         <v>44401</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -15703,7 +15736,7 @@
         <v>44401</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -15711,7 +15744,7 @@
         <v>44401</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F77DB48-4444-43EF-ADF6-947E2C5FB917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F5829-7273-4D6A-8A8C-AB08B05A03E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
   <si>
     <t>produto</t>
   </si>
@@ -907,6 +907,9 @@
   </si>
   <si>
     <t>cogumelo shimeji (produção do Yuri)</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2937,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2972,6 +2975,50 @@
       </c>
       <c r="C3" s="13" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>44415</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>44422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44436</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F5829-7273-4D6A-8A8C-AB08B05A03E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE5B1E9-973C-4CD0-869F-B683186F71C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="287">
   <si>
     <t>produto</t>
   </si>
@@ -910,6 +910,15 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>Débora</t>
+  </si>
+  <si>
+    <t>Josiane</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +2950,7 @@
   <dimension ref="A1:C991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2981,10 +2990,10 @@
       <c r="A4" s="9">
         <v>44415</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2992,21 +3001,21 @@
       <c r="A5" s="9">
         <v>44422</v>
       </c>
-      <c r="B5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" t="s">
-        <v>283</v>
+      <c r="B5" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44429</v>
       </c>
-      <c r="B6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3014,10 +3023,10 @@
       <c r="A7" s="9">
         <v>44436</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>283</v>
       </c>
     </row>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE5B1E9-973C-4CD0-869F-B683186F71C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06D368-459E-48A0-9D28-97AC84673FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
     <sheet name="busca_cesta" sheetId="2" r:id="rId2"/>
     <sheet name="mutiroes" sheetId="3" r:id="rId3"/>
-    <sheet name="info_nutricional" sheetId="4" r:id="rId4"/>
-    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId5"/>
-    <sheet name="hist_plantios" sheetId="8" r:id="rId6"/>
-    <sheet name="hist_mutiroes" sheetId="7" r:id="rId7"/>
-    <sheet name="hist_cestas" sheetId="6" r:id="rId8"/>
+    <sheet name="hist_cestas" sheetId="6" r:id="rId4"/>
+    <sheet name="info_nutricional" sheetId="4" r:id="rId5"/>
+    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId6"/>
+    <sheet name="hist_plantios" sheetId="8" r:id="rId7"/>
+    <sheet name="hist_mutiroes" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="296">
   <si>
     <t>produto</t>
   </si>
@@ -882,15 +882,9 @@
     <t>20/06/21 a 27/06/21</t>
   </si>
   <si>
-    <t>Renato</t>
-  </si>
-  <si>
     <t>melaço de cana</t>
   </si>
   <si>
-    <t xml:space="preserve"> voluntários avisar no grupo (máx. 3 pessoas)</t>
-  </si>
-  <si>
     <t>escarola</t>
   </si>
   <si>
@@ -903,9 +897,6 @@
     <t>cenoura</t>
   </si>
   <si>
-    <t>Bernadete</t>
-  </si>
-  <si>
     <t>cogumelo shimeji (produção do Yuri)</t>
   </si>
   <si>
@@ -919,6 +910,42 @@
   </si>
   <si>
     <t>Josiane</t>
+  </si>
+  <si>
+    <t>01/08/21 a 08/07/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abobrinha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">batata inglesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brócolis ramoso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cebolinha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhame   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nabo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabanete </t>
+  </si>
+  <si>
+    <t>abobrinha</t>
+  </si>
+  <si>
+    <t>batata inglesa</t>
+  </si>
+  <si>
+    <t>brócolis ramoso</t>
+  </si>
+  <si>
+    <t>nabo</t>
   </si>
 </sst>
 </file>
@@ -928,11 +955,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1061,56 +1095,57 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1328,11 +1363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1010"/>
+  <dimension ref="A1:F1014"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1376,7 @@
     <col min="2" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,202 +1390,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -1559,16 +1583,17 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1576,47 +1601,50 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="13"/>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1624,185 +1652,180 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -1811,26 +1834,25 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -1838,79 +1860,83 @@
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
@@ -1919,39 +1945,34 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="5"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
@@ -1960,47 +1981,79 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B68" s="13" t="s">
+      <c r="A68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2939,6 +2992,10 @@
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2947,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C991"/>
+  <dimension ref="A1:C990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2977,59 +3034,49 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44408</v>
+        <v>44415</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44415</v>
+        <v>44422</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>44436</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4009,7 +4056,6 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4018,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C997"/>
+  <dimension ref="A1:C996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4046,17 +4092,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>44409</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5036,7 +5072,6 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5044,6 +5079,867 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>44345</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>44352</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>44359</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>44366</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24">
+        <v>44373</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
+        <v>44380</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>44387</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="24">
+        <v>44401</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
@@ -13742,7 +14638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -14755,272 +15651,231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="19.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>280</v>
+      <c r="A13" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="A21" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="A22" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="A23" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
+      <c r="A24" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
+      <c r="A25" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
+      <c r="A26" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF9FF76-6587-4A82-A1EA-3E210EA83BFC}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="54.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>44346</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>44350</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>44381</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -15029,785 +15884,81 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF9FF76-6587-4A82-A1EA-3E210EA83BFC}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="54.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>44345</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>44352</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
-        <v>44359</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
-        <v>44366</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
-        <v>44373</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
-        <v>44380</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
-        <v>44387</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+      <c r="B1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>44346</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>44350</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>44381</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>44394</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
-        <v>44394</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B94" s="32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="25">
-        <v>44401</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="B5" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06D368-459E-48A0-9D28-97AC84673FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA8EAE-9106-4396-B6EA-61CB15B8DB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="296">
   <si>
     <t>produto</t>
   </si>
@@ -1367,7 +1367,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C2:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1419,7 +1419,9 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,7 +1451,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,7 +1492,9 @@
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1588,7 +1594,9 @@
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,7 +1673,9 @@
       <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1701,7 +1711,9 @@
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1950,7 +1962,9 @@
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -2027,7 +2041,9 @@
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA8EAE-9106-4396-B6EA-61CB15B8DB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97F6706-02B6-40E2-A8ED-528CB291A926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2070" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="296">
   <si>
     <t>produto</t>
   </si>
@@ -955,11 +955,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1095,57 +1102,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1367,7 +1375,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C2:C72"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1419,9 +1427,7 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,9 +1457,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,9 +1496,7 @@
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1594,9 +1596,7 @@
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,9 +1673,7 @@
       <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1711,9 +1709,7 @@
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1962,9 +1958,7 @@
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -2041,9 +2035,7 @@
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C990"/>
+  <dimension ref="A1:C989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3050,48 +3042,38 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44415</v>
+        <v>44422</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44436</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4071,7 +4053,6 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5096,10 +5077,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5947,6 +5928,78 @@
       </c>
       <c r="B105" s="23" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="24">
+        <v>44416</v>
+      </c>
+      <c r="B114" s="35" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97F6706-02B6-40E2-A8ED-528CB291A926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE3904B-EE24-47F8-B1C9-9406D4E24B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="690" windowWidth="21600" windowHeight="11370" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="299">
   <si>
     <t>produto</t>
   </si>
@@ -912,9 +912,6 @@
     <t>Josiane</t>
   </si>
   <si>
-    <t>01/08/21 a 08/07/21</t>
-  </si>
-  <si>
     <t xml:space="preserve">abobrinha </t>
   </si>
   <si>
@@ -946,6 +943,18 @@
   </si>
   <si>
     <t>nabo</t>
+  </si>
+  <si>
+    <t>01/08/21 a 08/08/21</t>
+  </si>
+  <si>
+    <t>09/08/21 a 16/08/21</t>
+  </si>
+  <si>
+    <t>alface mimosa</t>
+  </si>
+  <si>
+    <t>acelga</t>
   </si>
 </sst>
 </file>
@@ -955,11 +964,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1102,58 +1118,59 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1371,11 +1388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1014"/>
+  <dimension ref="A1:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" activeCellId="14" sqref="A4:A5 A8 A7 A11 A25 A32 A33 A37 A40 A60 A61 A67 A68 A69 A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,15 +1417,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1418,98 +1433,115 @@
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="F3" s="34"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="3"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="F7" s="34"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="3"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -1517,17 +1549,17 @@
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1536,25 +1568,27 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1562,46 +1596,42 @@
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1609,148 +1639,161 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="13"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -1759,25 +1802,28 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
@@ -1786,16 +1832,16 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -1804,7 +1850,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -1813,7 +1859,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -1821,90 +1867,91 @@
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="A55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
@@ -1912,57 +1959,57 @@
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="3"/>
+      <c r="A57" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B59" s="13" t="s">
+      <c r="A59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="3"/>
+      <c r="D60" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
@@ -1971,7 +2018,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
@@ -1980,7 +2027,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
@@ -1989,81 +2036,108 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="5"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="21"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B74" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3004,6 +3078,8 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5998,7 +6074,7 @@
       <c r="A114" s="24">
         <v>44416</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="34" t="s">
         <v>262</v>
       </c>
     </row>
@@ -15722,10 +15798,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15888,63 +15964,188 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="34" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" s="34" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B22" s="34" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B23" s="34" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B24" s="34" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B25" s="34" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>291</v>
-      </c>
-    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
+      <c r="A27" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE3904B-EE24-47F8-B1C9-9406D4E24B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F94F24-43BF-47D8-951A-ACB30DE0D350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="690" windowWidth="21600" windowHeight="11370" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="297">
   <si>
     <t>produto</t>
   </si>
@@ -901,12 +901,6 @@
   </si>
   <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
-    <t>Débora</t>
   </si>
   <si>
     <t>Josiane</t>
@@ -1391,8 +1385,8 @@
   <dimension ref="A1:F1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" activeCellId="14" sqref="A4:A5 A8 A7 A11 A25 A32 A33 A37 A40 A60 A61 A67 A68 A69 A70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1411,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>5</v>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>5</v>
@@ -1491,9 +1485,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1511,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>5</v>
@@ -1573,9 +1565,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1622,7 +1612,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>5</v>
@@ -1662,7 +1652,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>5</v>
@@ -1720,9 +1710,7 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1764,9 +1752,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1787,9 +1773,7 @@
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1899,9 +1883,7 @@
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -1997,7 +1979,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>5</v>
@@ -2095,9 +2077,7 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="13" t="s">
         <v>5</v>
       </c>
@@ -2109,9 +2089,7 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3088,10 +3066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C989"/>
+  <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3118,37 +3096,27 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44422</v>
+        <v>44429</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>281</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>44436</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4128,7 +4096,6 @@
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5153,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5928,7 +5895,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>9</v>
@@ -5936,7 +5903,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>13</v>
@@ -5944,7 +5911,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>262</v>
@@ -5952,7 +5919,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>15</v>
@@ -5960,7 +5927,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>279</v>
@@ -5968,7 +5935,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>275</v>
@@ -5976,7 +5943,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>30</v>
@@ -5984,7 +5951,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>44</v>
@@ -5992,7 +5959,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>63</v>
@@ -6000,7 +5967,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>147</v>
@@ -6008,7 +5975,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>6</v>
@@ -6016,7 +5983,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>9</v>
@@ -6024,7 +5991,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>13</v>
@@ -6032,7 +5999,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>21</v>
@@ -6040,7 +6007,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>275</v>
@@ -6048,7 +6015,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>30</v>
@@ -6056,7 +6023,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>55</v>
@@ -6064,7 +6031,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>63</v>
@@ -6072,10 +6039,74 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="24">
+        <v>44422</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -15800,7 +15831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -15965,71 +15996,71 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>6</v>
@@ -16037,7 +16068,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>8</v>
@@ -16045,7 +16076,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
@@ -16053,15 +16084,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>22</v>
@@ -16069,7 +16100,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>275</v>
@@ -16077,7 +16108,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>27</v>
@@ -16085,7 +16116,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>31</v>
@@ -16093,7 +16124,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>34</v>
@@ -16101,7 +16132,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>53</v>
@@ -16109,15 +16140,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>59</v>
@@ -16125,7 +16156,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>60</v>
@@ -16133,7 +16164,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>61</v>
@@ -16141,7 +16172,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>62</v>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F94F24-43BF-47D8-951A-ACB30DE0D350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA00EF26-3DB2-45F0-9989-C9D3235FC2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="2160" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
     <sheet name="busca_cesta" sheetId="2" r:id="rId2"/>
     <sheet name="mutiroes" sheetId="3" r:id="rId3"/>
     <sheet name="hist_cestas" sheetId="6" r:id="rId4"/>
-    <sheet name="info_nutricional" sheetId="4" r:id="rId5"/>
-    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId6"/>
-    <sheet name="hist_plantios" sheetId="8" r:id="rId7"/>
-    <sheet name="hist_mutiroes" sheetId="7" r:id="rId8"/>
+    <sheet name="qtde_cestas" sheetId="9" r:id="rId5"/>
+    <sheet name="info_nutricional" sheetId="4" r:id="rId6"/>
+    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId7"/>
+    <sheet name="hist_plantios" sheetId="8" r:id="rId8"/>
+    <sheet name="hist_mutiroes" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,14 +32,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjaqJPAbrcKtIJAjZXo3RfZ7gj1Bw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mjaqJPAbrcKtIJAjZXo3RfZ7gj1Bw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="298">
   <si>
     <t>produto</t>
   </si>
@@ -949,6 +950,9 @@
   </si>
   <si>
     <t>acelga</t>
+  </si>
+  <si>
+    <t>qtde</t>
   </si>
 </sst>
 </file>
@@ -958,7 +962,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1096,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1114,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1166,6 +1177,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,9 +1397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1472,7 +1485,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1500,9 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1652,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,7 +1720,9 @@
         <v>279</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
@@ -1710,7 +1731,9 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1775,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2053,7 +2078,9 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2116,9 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,7 +3097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5122,8 +5151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:B122"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,6 +6145,132 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="38">
+        <v>44345</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
+        <v>44352</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="38">
+        <v>44359</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="38">
+        <v>44366</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="38">
+        <v>44373</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
+        <v>44380</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="38">
+        <v>44387</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="38">
+        <v>44394</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="38">
+        <v>44401</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
+        <v>44408</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="38">
+        <v>44415</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="38">
+        <v>44422</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
@@ -14814,7 +14969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -15827,7 +15982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -16184,7 +16339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF9FF76-6587-4A82-A1EA-3E210EA83BFC}">
   <dimension ref="A1:C9"/>
   <sheetViews>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA00EF26-3DB2-45F0-9989-C9D3235FC2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C46B9B5-66C7-4B15-A557-8E81696FC7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="2160" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="hist_cestas" sheetId="6" r:id="rId4"/>
     <sheet name="qtde_cestas" sheetId="9" r:id="rId5"/>
     <sheet name="info_nutricional" sheetId="4" r:id="rId6"/>
-    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId7"/>
-    <sheet name="hist_plantios" sheetId="8" r:id="rId8"/>
-    <sheet name="hist_mutiroes" sheetId="7" r:id="rId9"/>
+    <sheet name="hist_plantios" sheetId="8" r:id="rId7"/>
+    <sheet name="hist_mutiroes" sheetId="7" r:id="rId8"/>
+    <sheet name="info_nutricional_completar" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="297">
   <si>
     <t>produto</t>
   </si>
@@ -902,9 +902,6 @@
   </si>
   <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>Josiane</t>
   </si>
   <si>
     <t xml:space="preserve">abobrinha </t>
@@ -962,11 +959,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1123,62 +1127,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,8 +1403,8 @@
   <dimension ref="A1:F1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1429,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>5</v>
@@ -1444,7 +1449,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>5</v>
@@ -1485,9 +1490,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1500,9 +1503,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1529,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>5</v>
@@ -1629,7 +1630,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>5</v>
@@ -1652,9 +1653,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,7 +1670,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>5</v>
@@ -1720,9 +1719,7 @@
         <v>279</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
@@ -1731,9 +1728,7 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1775,9 +1770,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2004,7 +1997,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>5</v>
@@ -2078,9 +2071,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
@@ -2116,9 +2107,7 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C988"/>
+  <dimension ref="A1:C987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3125,10 +3114,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>280</v>
@@ -3136,7 +3125,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44436</v>
+        <v>44443</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>280</v>
@@ -3145,6 +3134,29 @@
         <v>280</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>44450</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44457</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4124,7 +4136,6 @@
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4136,7 +4147,7 @@
   <dimension ref="A1:C996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4160,6 +4171,12 @@
       <c r="C2" s="12" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5149,15 +5166,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.75" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="23"/>
   </cols>
@@ -6136,6 +6153,86 @@
       </c>
       <c r="B122" s="13" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B131" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="24">
+        <v>44429</v>
+      </c>
+      <c r="B132" s="39" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6146,10 +6243,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6162,7 +6259,7 @@
         <v>264</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6259,6 +6356,14 @@
       </c>
       <c r="B13">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <v>44429</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6276,7 +6381,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14970,6 +15075,443 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF9FF76-6587-4A82-A1EA-3E210EA83BFC}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="54.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>44346</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>44350</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>44381</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>44394</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -15980,441 +16522,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF9FF76-6587-4A82-A1EA-3E210EA83BFC}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="54.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>44346</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>44350</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>44381</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>44394</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>44409</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C46B9B5-66C7-4B15-A557-8E81696FC7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD52972-03EE-41FE-BAAA-790872545F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-1860" windowWidth="28920" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="297">
   <si>
     <t>produto</t>
   </si>
@@ -1404,7 +1404,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C2:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1490,7 +1490,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1505,9 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1560,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1583,7 +1589,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1728,7 +1736,9 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1780,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2071,7 +2083,9 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2109,9 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D70" s="13" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2123,9 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD52972-03EE-41FE-BAAA-790872545F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D359B-83C4-4CA0-AF0F-E72E89137B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="303">
   <si>
     <t>produto</t>
   </si>
@@ -950,6 +950,24 @@
   </si>
   <si>
     <t>qtde</t>
+  </si>
+  <si>
+    <t>Ana Carolina</t>
+  </si>
+  <si>
+    <t>Bernadete/Ronaldo</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>Renato/Marina</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
+  </si>
+  <si>
+    <t>Débora/Humberto</t>
   </si>
 </sst>
 </file>
@@ -1402,9 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C2:C74"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3104,15 +3122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3135,10 +3153,10 @@
         <v>44436</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,10 +3175,10 @@
         <v>44450</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,9 +3186,20 @@
         <v>44457</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44464</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>280</v>
       </c>
     </row>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D359B-83C4-4CA0-AF0F-E72E89137B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C714383-0571-4DAF-92B7-CECE25132BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="303">
   <si>
     <t>produto</t>
   </si>
@@ -1422,7 +1422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1508,9 +1508,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1523,9 +1521,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1578,9 +1574,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1607,9 +1601,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1754,9 +1746,7 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1798,9 +1788,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2101,9 +2089,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
@@ -2127,9 +2113,7 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="13" t="s">
         <v>5</v>
       </c>
@@ -2141,9 +2125,7 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,7 +3104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5213,10 +5195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6282,6 +6264,94 @@
         <v>61</v>
       </c>
     </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="24">
+        <v>44436</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6290,10 +6360,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6411,6 +6481,11 @@
       </c>
       <c r="B14">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="38">
+        <v>44436</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C714383-0571-4DAF-92B7-CECE25132BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B52B1-542B-4BCB-A1BB-4D8BE2FF15B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="303">
   <si>
     <t>produto</t>
   </si>
@@ -955,9 +955,6 @@
     <t>Ana Carolina</t>
   </si>
   <si>
-    <t>Bernadete/Ronaldo</t>
-  </si>
-  <si>
     <t>Ana Beatriz</t>
   </si>
   <si>
@@ -968,6 +965,9 @@
   </si>
   <si>
     <t>Débora/Humberto</t>
+  </si>
+  <si>
+    <t>Camila Michelin</t>
   </si>
 </sst>
 </file>
@@ -1420,9 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1521,7 +1521,9 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1544,9 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,7 +1587,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1746,7 +1752,9 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +1796,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1809,7 +1819,9 @@
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2089,7 +2101,9 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
@@ -2125,7 +2139,9 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3102,7 +3118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C987"/>
+  <dimension ref="A1:C986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -3132,59 +3148,49 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44436</v>
+        <v>44443</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44443</v>
+        <v>44450</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44457</v>
+        <v>44464</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>301</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>44464</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="13" t="s">
         <v>280</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4164,7 +4170,6 @@
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5197,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
@@ -6363,7 +6368,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6486,6 +6491,9 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="38">
         <v>44436</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B52B1-542B-4BCB-A1BB-4D8BE2FF15B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B965ED70-434A-4640-8C66-B763889B3FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="302">
   <si>
     <t>produto</t>
   </si>
@@ -965,9 +965,6 @@
   </si>
   <si>
     <t>Débora/Humberto</t>
-  </si>
-  <si>
-    <t>Camila Michelin</t>
   </si>
 </sst>
 </file>
@@ -977,11 +974,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1145,62 +1149,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1420,9 +1425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1521,9 +1526,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1544,9 +1547,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,6 +1580,9 @@
         <v>5</v>
       </c>
       <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1587,9 +1591,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1752,9 +1754,7 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>5</v>
       </c>
@@ -1796,9 +1796,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1819,9 +1817,7 @@
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2101,9 +2097,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
@@ -2139,9 +2133,7 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3118,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C986"/>
+  <dimension ref="A1:C985"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3148,43 +3140,43 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44443</v>
+        <v>44450</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44457</v>
+        <v>44464</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>280</v>
@@ -4169,7 +4161,6 @@
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5200,10 +5191,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6357,6 +6348,78 @@
         <v>63</v>
       </c>
     </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B151" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="24">
+        <v>44443</v>
+      </c>
+      <c r="B152" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6365,10 +6428,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6493,6 +6556,14 @@
         <v>44436</v>
       </c>
       <c r="B15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="38">
+        <v>44443</v>
+      </c>
+      <c r="B16">
         <v>18</v>
       </c>
     </row>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B965ED70-434A-4640-8C66-B763889B3FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3EF26-5C29-4005-A7E8-DD7A3C8A0FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="306">
   <si>
     <t>produto</t>
   </si>
@@ -965,6 +965,18 @@
   </si>
   <si>
     <t>Débora/Humberto</t>
+  </si>
+  <si>
+    <t>06/09/21 a 12/09/21</t>
+  </si>
+  <si>
+    <t>pepino</t>
+  </si>
+  <si>
+    <t>vagem</t>
+  </si>
+  <si>
+    <t>cogumelo shimeji</t>
   </si>
 </sst>
 </file>
@@ -974,11 +986,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1149,62 +1168,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1423,11 +1443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1016"/>
+  <dimension ref="A1:F1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1478,9 +1498,6 @@
         <v>5</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
       <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,9 +1508,6 @@
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,8 +1527,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="33"/>
@@ -1539,7 +1552,9 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,7 +1562,9 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,9 +1575,6 @@
         <v>5</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" t="s">
+      <c r="D13" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1591,7 +1605,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1680,7 +1696,9 @@
         <v>5</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1690,9 +1708,6 @@
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1742,10 +1757,13 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
+      <c r="D31" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
@@ -1755,9 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1767,9 +1783,6 @@
         <v>5</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1796,7 +1809,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1806,9 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1836,9 +1849,6 @@
         <v>5</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2017,9 +2027,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
@@ -2029,9 +2037,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -2052,35 +2058,38 @@
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
@@ -2092,76 +2101,97 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="13" t="s">
+      <c r="C70" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="5"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B75" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3102,6 +3132,7 @@
     <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3112,7 +3143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5193,8 +5224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15277,28 +15308,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="23" customWidth="1"/>
     <col min="3" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>272</v>
       </c>
@@ -15306,7 +15340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>272</v>
       </c>
@@ -15314,7 +15348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>272</v>
       </c>
@@ -15322,7 +15356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>273</v>
       </c>
@@ -15330,7 +15364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>273</v>
       </c>
@@ -15338,7 +15372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>273</v>
       </c>
@@ -15346,7 +15380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>273</v>
       </c>
@@ -15354,7 +15388,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>273</v>
       </c>
@@ -15362,7 +15396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>273</v>
       </c>
@@ -15370,7 +15404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>273</v>
       </c>
@@ -15378,7 +15412,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>277</v>
       </c>
@@ -15386,7 +15420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>277</v>
       </c>
@@ -15394,7 +15428,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>277</v>
       </c>
@@ -15402,7 +15436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>277</v>
       </c>
@@ -15410,7 +15444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>277</v>
       </c>
@@ -15418,7 +15452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>277</v>
       </c>
@@ -15426,7 +15460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>277</v>
       </c>
@@ -15434,7 +15468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>277</v>
       </c>
@@ -15442,7 +15476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>292</v>
       </c>
@@ -15450,7 +15484,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>292</v>
       </c>
@@ -15458,7 +15492,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>292</v>
       </c>
@@ -15466,7 +15500,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>292</v>
       </c>
@@ -15474,7 +15508,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>292</v>
       </c>
@@ -15482,7 +15516,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>292</v>
       </c>
@@ -15490,7 +15524,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>292</v>
       </c>
@@ -15498,132 +15532,234 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>62</v>
+      </c>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="23">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="23">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3EF26-5C29-4005-A7E8-DD7A3C8A0FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454DE85B-1136-4785-925E-720CF64F9A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="305">
   <si>
     <t>produto</t>
   </si>
@@ -955,18 +955,12 @@
     <t>Ana Carolina</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>Renato/Marina</t>
   </si>
   <si>
     <t>Bernadete</t>
   </si>
   <si>
-    <t>Débora/Humberto</t>
-  </si>
-  <si>
     <t>06/09/21 a 12/09/21</t>
   </si>
   <si>
@@ -977,6 +971,9 @@
   </si>
   <si>
     <t>cogumelo shimeji</t>
+  </si>
+  <si>
+    <t>pepino verde comprido</t>
   </si>
 </sst>
 </file>
@@ -986,11 +983,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1168,62 +1179,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1446,8 +1459,8 @@
   <dimension ref="A1:F1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1527,9 +1540,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,9 +1563,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,9 +1571,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,9 +1612,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1757,7 +1762,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1809,9 +1814,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2059,7 +2062,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>5</v>
@@ -2106,9 +2109,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,9 +2129,7 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2150,9 +2149,7 @@
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="5" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2180,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>5</v>
@@ -3141,10 +3138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C985"/>
+  <dimension ref="A1:C984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3171,32 +3168,32 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44457</v>
+        <v>44464</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44471</v>
+        <v>44478</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>280</v>
@@ -4191,7 +4188,6 @@
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5222,10 +5218,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6449,6 +6445,86 @@
       </c>
       <c r="B152" s="40" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B161" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -15311,7 +15387,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15687,7 +15763,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>13</v>
@@ -15698,7 +15774,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>21</v>
@@ -15709,7 +15785,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>9</v>
@@ -15720,7 +15796,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>63</v>
@@ -15731,10 +15807,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>304</v>
       </c>
       <c r="C48" s="23">
         <v>50</v>
@@ -15742,10 +15818,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>302</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>304</v>
       </c>
       <c r="C49" s="23">
         <v>100</v>
@@ -15753,7 +15829,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>58</v>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3EF26-5C29-4005-A7E8-DD7A3C8A0FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCCF55-109B-4FBF-9CBB-554BDD367990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="305">
   <si>
     <t>produto</t>
   </si>
@@ -955,18 +955,12 @@
     <t>Ana Carolina</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>Renato/Marina</t>
   </si>
   <si>
     <t>Bernadete</t>
   </si>
   <si>
-    <t>Débora/Humberto</t>
-  </si>
-  <si>
     <t>06/09/21 a 12/09/21</t>
   </si>
   <si>
@@ -977,6 +971,9 @@
   </si>
   <si>
     <t>cogumelo shimeji</t>
+  </si>
+  <si>
+    <t>pepino verde comprido</t>
   </si>
 </sst>
 </file>
@@ -986,11 +983,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1168,62 +1179,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1446,8 +1459,8 @@
   <dimension ref="A1:F1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1539,7 +1552,9 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1552,9 +1567,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,7 +1638,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1757,10 +1772,14 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+        <v>303</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1867,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2059,7 +2080,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>5</v>
@@ -2106,9 +2127,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,9 +2147,7 @@
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,7 +2200,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>5</v>
@@ -3141,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C985"/>
+  <dimension ref="A1:C984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3171,32 +3188,32 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44457</v>
+        <v>44464</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
@@ -3204,7 +3221,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44471</v>
+        <v>44478</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>280</v>
@@ -4191,7 +4208,6 @@
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5222,10 +5238,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6451,6 +6467,86 @@
         <v>30</v>
       </c>
     </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B161" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="24">
+        <v>44450</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6459,10 +6555,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6596,6 +6692,14 @@
       </c>
       <c r="B16">
         <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="38">
+        <v>44450</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -15311,7 +15415,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15687,7 +15791,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>13</v>
@@ -15698,7 +15802,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>21</v>
@@ -15709,7 +15813,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>9</v>
@@ -15720,7 +15824,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>63</v>
@@ -15731,10 +15835,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>304</v>
       </c>
       <c r="C48" s="23">
         <v>50</v>
@@ -15742,10 +15846,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>302</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>304</v>
       </c>
       <c r="C49" s="23">
         <v>100</v>
@@ -15753,7 +15857,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>58</v>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCCF55-109B-4FBF-9CBB-554BDD367990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B5A73-755A-41CF-85C1-68DD07AA721D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3555" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="1140" windowWidth="21600" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="307">
   <si>
     <t>produto</t>
   </si>
@@ -974,6 +974,12 @@
   </si>
   <si>
     <t>pepino verde comprido</t>
+  </si>
+  <si>
+    <t>amoras (congeladas)</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
   </si>
 </sst>
 </file>
@@ -1458,9 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1624,12 +1630,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3160,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3213,7 +3221,7 @@
         <v>44471</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B5A73-755A-41CF-85C1-68DD07AA721D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58199DD6-3D4E-4B2B-AF80-27A5CDC09A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1140" windowWidth="21600" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="305">
   <si>
     <t>produto</t>
   </si>
@@ -952,13 +952,7 @@
     <t>qtde</t>
   </si>
   <si>
-    <t>Ana Carolina</t>
-  </si>
-  <si>
     <t>Renato/Marina</t>
-  </si>
-  <si>
-    <t>Bernadete</t>
   </si>
   <si>
     <t>06/09/21 a 12/09/21</t>
@@ -989,11 +983,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1185,62 +1186,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1465,8 +1467,8 @@
   <dimension ref="A1:F1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" activeCellId="9" sqref="A7 A8 A10 A14 A15 A16 A31 A36 A40 A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1630,7 +1632,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1780,7 +1782,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>5</v>
@@ -2088,7 +2090,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>5</v>
@@ -2208,7 +2210,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>5</v>
@@ -3166,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C984"/>
+  <dimension ref="A1:C983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3196,21 +3198,21 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44457</v>
+        <v>44464</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>280</v>
@@ -3218,26 +3220,16 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44471</v>
+        <v>44478</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44478</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4215,7 +4207,6 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5246,10 +5237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,7 +6543,95 @@
         <v>44450</v>
       </c>
       <c r="B162" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B167" s="13" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B173" s="44" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6563,10 +6642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6710,6 +6789,15 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="38">
+        <v>44457</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
     <sortCondition ref="A1"/>
@@ -15422,7 +15510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -15799,7 +15887,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>13</v>
@@ -15810,7 +15898,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>21</v>
@@ -15821,7 +15909,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>9</v>
@@ -15832,7 +15920,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>63</v>
@@ -15843,10 +15931,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C48" s="23">
         <v>50</v>
@@ -15854,10 +15942,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="41" t="s">
         <v>300</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>302</v>
       </c>
       <c r="C49" s="23">
         <v>100</v>
@@ -15865,7 +15953,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>58</v>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58199DD6-3D4E-4B2B-AF80-27A5CDC09A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFAD94-B493-4032-84FA-6A93E0B45A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="305">
   <si>
     <t>produto</t>
   </si>
@@ -1466,9 +1466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" activeCellId="9" sqref="A7 A8 A10 A14 A15 A16 A31 A36 A40 A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1548,9 +1548,7 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,9 +1558,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1583,9 +1579,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,9 +1620,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1637,9 +1629,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1648,9 +1638,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1787,9 +1775,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21" t="s">
         <v>5</v>
       </c>
@@ -1838,9 +1824,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1877,9 +1861,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2177,9 +2159,7 @@
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="5" t="s">
         <v>5</v>
       </c>
@@ -6645,7 +6625,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15510,7 +15490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFAD94-B493-4032-84FA-6A93E0B45A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF7038-1AAC-4D48-8326-54C92000DD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="305">
   <si>
     <t>produto</t>
   </si>
@@ -1466,9 +1466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C77"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1558,9 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1581,9 @@
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,7 +1624,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1629,7 +1635,9 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1708,7 +1716,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1785,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1836,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2159,7 +2173,9 @@
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D72" s="5" t="s">
         <v>5</v>
       </c>
@@ -3150,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3209,7 +3225,17 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44485</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF7038-1AAC-4D48-8326-54C92000DD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809B6AF-7FE9-49EE-BB99-6831BD91E0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="307">
   <si>
     <t>produto</t>
   </si>
@@ -952,9 +952,6 @@
     <t>qtde</t>
   </si>
   <si>
-    <t>Renato/Marina</t>
-  </si>
-  <si>
     <t>06/09/21 a 12/09/21</t>
   </si>
   <si>
@@ -974,6 +971,15 @@
   </si>
   <si>
     <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>feijão de corda</t>
+  </si>
+  <si>
+    <t>quiabo</t>
+  </si>
+  <si>
+    <t>27/09/21 a 01/10/21</t>
   </si>
 </sst>
 </file>
@@ -983,11 +989,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1186,62 +1199,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1464,11 +1478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1017"/>
+  <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" activeCellId="2" sqref="A22 A42 A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1498,7 +1512,9 @@
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,9 +1577,7 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="13"/>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,7 +1594,9 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1613,9 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1630,7 +1644,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1699,6 +1713,9 @@
         <v>5</v>
       </c>
       <c r="C22" s="13"/>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1719,9 +1736,7 @@
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1780,7 +1795,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>5</v>
@@ -1788,9 +1803,7 @@
       <c r="C31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
@@ -1875,7 +1888,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1887,35 +1902,38 @@
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="13"/>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -1924,7 +1942,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -1933,7 +1951,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -1942,7 +1960,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -1950,43 +1968,43 @@
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
@@ -1995,140 +2013,135 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="21" t="s">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
@@ -2138,85 +2151,100 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="5"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="21"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="13"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="21" t="s">
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3156,6 +3184,7 @@
     <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3164,10 +3193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C983"/>
+  <dimension ref="A1:C982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3192,12 +3221,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44464</v>
+        <v>44471</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>280</v>
@@ -3205,10 +3234,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44471</v>
+        <v>44478</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>280</v>
@@ -3216,7 +3245,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>280</v>
@@ -3227,7 +3256,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>280</v>
@@ -4212,7 +4241,6 @@
     <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5243,10 +5271,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6549,7 +6577,7 @@
         <v>44450</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6589,7 +6617,7 @@
         <v>44457</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -6605,7 +6633,7 @@
         <v>44457</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,8 +6664,88 @@
       <c r="A173" s="24">
         <v>44457</v>
       </c>
-      <c r="B173" s="44" t="s">
+      <c r="B173" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="24">
+        <v>44457</v>
+      </c>
+      <c r="B174" s="44" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="24">
+        <v>44464</v>
+      </c>
+      <c r="B183" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6650,8 +6758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6803,7 +6911,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38">
+        <v>44464</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
     <sortCondition ref="A1"/>
@@ -15514,10 +15629,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15893,7 +16008,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>13</v>
@@ -15904,7 +16019,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>21</v>
@@ -15915,7 +16030,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>9</v>
@@ -15926,7 +16041,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>63</v>
@@ -15937,10 +16052,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" s="23">
         <v>50</v>
@@ -15948,10 +16063,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C49" s="23">
         <v>100</v>
@@ -15959,13 +16074,37 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="23">
         <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809B6AF-7FE9-49EE-BB99-6831BD91E0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306A9E8-F4B3-4795-8295-6F2270BFE121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="308">
   <si>
     <t>produto</t>
   </si>
@@ -970,9 +970,6 @@
     <t>amoras (congeladas)</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>feijão de corda</t>
   </si>
   <si>
@@ -980,6 +977,12 @@
   </si>
   <si>
     <t>27/09/21 a 01/10/21</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1484,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" activeCellId="2" sqref="A22 A42 A78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1512,9 +1515,7 @@
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,9 +1575,7 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="13"/>
       <c r="F8" s="33"/>
     </row>
@@ -1597,9 +1596,7 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,9 +1635,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1649,9 +1644,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1733,9 +1726,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,9 +1791,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,9 +1838,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1888,9 +1875,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1903,7 +1888,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>5</v>
@@ -2196,9 +2181,7 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,7 +2219,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>5</v>
@@ -3193,10 +3176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C982"/>
+  <dimension ref="A1:C981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3223,10 +3206,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44471</v>
+        <v>44478</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>280</v>
@@ -3234,10 +3217,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>280</v>
@@ -3245,10 +3228,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
@@ -3256,10 +3239,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44492</v>
+        <v>44499</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>280</v>
@@ -4240,7 +4223,6 @@
     <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5271,10 +5253,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6748,6 +6730,86 @@
         <v>22</v>
       </c>
     </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="24">
+        <v>44471</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6756,9 +6818,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -6917,6 +6979,14 @@
       </c>
       <c r="B19">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
+        <v>44471</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -15631,7 +15701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -16085,7 +16155,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>289</v>
@@ -16093,18 +16163,18 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306A9E8-F4B3-4795-8295-6F2270BFE121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0031E-F262-4C9C-9FBA-EA4B11554400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="309">
   <si>
     <t>produto</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>Cláudia</t>
+  </si>
+  <si>
+    <t>02/10/21 a 09/10/21</t>
   </si>
 </sst>
 </file>
@@ -992,11 +995,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1202,62 +1212,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1483,9 +1494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1515,8 +1526,12 @@
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1545,7 +1560,9 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,6 +1614,9 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,7 +1655,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1653,7 +1675,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1706,9 +1730,6 @@
         <v>5</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1726,7 +1747,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,6 +1760,9 @@
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1773,7 +1799,9 @@
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1791,7 +1819,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1812,6 +1842,9 @@
         <v>5</v>
       </c>
       <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1821,6 +1854,9 @@
         <v>5</v>
       </c>
       <c r="C34" s="3"/>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1838,7 +1874,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1848,7 +1886,9 @@
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1875,7 +1915,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1894,9 +1936,6 @@
         <v>5</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -2094,7 +2133,9 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -2104,7 +2145,9 @@
         <v>5</v>
       </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="21"/>
+      <c r="D65" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -2162,7 +2205,9 @@
         <v>5</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="21"/>
+      <c r="D71" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -2182,7 +2227,9 @@
         <v>5</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -2215,16 +2262,15 @@
       <c r="B77" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="21"/>
+      <c r="D77" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5255,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15699,10 +15745,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16176,6 +16222,113 @@
       <c r="B53" s="13" t="s">
         <v>304</v>
       </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0031E-F262-4C9C-9FBA-EA4B11554400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6498A4-DBF5-4264-971D-F61607DB6BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="309">
   <si>
     <t>produto</t>
   </si>
@@ -995,11 +995,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1212,62 +1219,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1494,9 +1502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1526,9 +1534,7 @@
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
@@ -1560,9 +1566,7 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,9 +1659,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1675,9 +1677,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1747,9 +1747,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,9 +1817,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,9 +1870,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1915,9 +1909,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2133,9 +2125,7 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -3225,7 +3215,7 @@
   <dimension ref="A1:C981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5299,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6856,6 +6846,140 @@
         <v>63</v>
       </c>
     </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B208" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="24">
+        <v>44478</v>
+      </c>
+      <c r="B209" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="24"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6864,10 +6988,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F38" sqref="F37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7033,6 +7157,14 @@
       </c>
       <c r="B20">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
+        <v>44478</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -15748,7 +15880,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B55" sqref="B55:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6498A4-DBF5-4264-971D-F61607DB6BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2D75BD-B737-418C-9FD0-0B2899201B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -3212,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C981"/>
+  <dimension ref="A1:C980"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44478</v>
+        <v>44485</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>280</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>280</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44492</v>
+        <v>44499</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>280</v>
@@ -4258,7 +4258,6 @@
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5291,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2D75BD-B737-418C-9FD0-0B2899201B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61232E-0C0B-4D29-87F2-34CEB331E9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="311">
   <si>
     <t>produto</t>
   </si>
@@ -986,6 +986,12 @@
   </si>
   <si>
     <t>02/10/21 a 09/10/21</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>Ana Carolina</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1509,7 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -3215,7 +3221,7 @@
   <dimension ref="A1:C980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3245,10 +3251,10 @@
         <v>44485</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5290,8 +5296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A209" sqref="A194:A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61232E-0C0B-4D29-87F2-34CEB331E9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DDABFF-540F-40E6-BA74-7DF0EBAA0F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="311">
   <si>
     <t>produto</t>
   </si>
@@ -988,10 +988,10 @@
     <t>02/10/21 a 09/10/21</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
-    <t>Ana Carolina</t>
+    <t>10/10/21 a 17/10/21</t>
+  </si>
+  <si>
+    <t>200g em sementes</t>
   </si>
 </sst>
 </file>
@@ -1001,11 +1001,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1225,62 +1232,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1509,8 +1517,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1541,9 +1549,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1624,9 +1630,6 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,9 +1767,6 @@
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1803,9 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1844,9 +1842,6 @@
         <v>5</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1856,9 +1851,6 @@
         <v>5</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1886,9 +1878,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1925,6 +1915,9 @@
         <v>5</v>
       </c>
       <c r="C41" s="3"/>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
@@ -2141,9 +2134,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -2201,9 +2192,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -2223,9 +2212,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -2258,15 +2245,16 @@
       <c r="B77" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3218,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C980"/>
+  <dimension ref="A1:C979"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3248,21 +3236,21 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44492</v>
+        <v>44499</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>280</v>
@@ -3270,10 +3258,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
@@ -3281,7 +3269,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>280</v>
@@ -4263,7 +4251,6 @@
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4275,7 +4262,7 @@
   <dimension ref="A1:C996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5294,10 +5281,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A209" sqref="A194:A209"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6980,10 +6967,108 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="24"/>
+      <c r="A210" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B210" s="48" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="24"/>
+      <c r="A211" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B211" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B212" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B213" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B216" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B217" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B218" s="48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B219" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B220" s="48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="24">
+        <v>44485</v>
+      </c>
+      <c r="B222" s="48" t="s">
+        <v>262</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6993,10 +7078,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F38" sqref="F37:F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7170,6 +7255,14 @@
       </c>
       <c r="B21">
         <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="38">
+        <v>44485</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -15882,17 +15975,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:B62"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.75" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="23"/>
+    <col min="3" max="3" width="15.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16460,12 +16554,59 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DDABFF-540F-40E6-BA74-7DF0EBAA0F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F042A221-7070-405E-89CA-7DA0574171BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="312">
   <si>
     <t>produto</t>
   </si>
@@ -992,6 +992,9 @@
   </si>
   <si>
     <t>200g em sementes</t>
+  </si>
+  <si>
+    <t>17/10/21 a 23/10/21</t>
   </si>
 </sst>
 </file>
@@ -1516,9 +1519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1661,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,7 +1673,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1686,7 +1693,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1803,7 +1812,9 @@
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1821,7 +1832,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,7 +1881,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1878,7 +1893,9 @@
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1905,7 +1922,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1915,9 +1934,6 @@
         <v>5</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
@@ -2006,7 +2022,9 @@
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2115,7 +2133,9 @@
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2124,7 +2144,9 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -2172,7 +2194,9 @@
         <v>5</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="21"/>
+      <c r="D69" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -2192,7 +2216,9 @@
         <v>5</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="21"/>
+      <c r="D71" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -2211,7 +2237,9 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,9 +2280,6 @@
         <v>304</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7080,8 +7105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15978,7 +16003,7 @@
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="B65" sqref="B65:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16575,37 +16600,57 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F042A221-7070-405E-89CA-7DA0574171BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03614C99-DFD4-484B-9539-42548FCAA648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="311">
   <si>
     <t>produto</t>
   </si>
@@ -980,9 +980,6 @@
   </si>
   <si>
     <t>Bernadete</t>
-  </si>
-  <si>
-    <t>Cláudia</t>
   </si>
   <si>
     <t>02/10/21 a 09/10/21</t>
@@ -1004,11 +1001,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1235,62 +1239,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1521,7 +1526,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1661,9 +1666,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,9 +1676,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1693,9 +1694,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1832,9 +1831,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,9 +1878,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1922,9 +1917,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2022,9 +2015,7 @@
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -2133,9 +2124,7 @@
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2144,9 +2133,7 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -2237,9 +2224,7 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C979"/>
+  <dimension ref="A1:C978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3261,10 +3246,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44492</v>
+        <v>44499</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>280</v>
@@ -3272,10 +3257,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>280</v>
@@ -3283,7 +3268,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>280</v>
@@ -3294,7 +3279,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>280</v>
@@ -4275,7 +4260,6 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5306,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7095,6 +7079,102 @@
         <v>262</v>
       </c>
     </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B232" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B233" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="24">
+        <v>44492</v>
+      </c>
+      <c r="B234" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7103,10 +7183,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7288,6 +7368,14 @@
       </c>
       <c r="B22">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="38">
+        <v>44492</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -16003,7 +16091,7 @@
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B68"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16481,7 +16569,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>22</v>
@@ -16492,7 +16580,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>27</v>
@@ -16503,7 +16591,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>31</v>
@@ -16514,7 +16602,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>61</v>
@@ -16525,7 +16613,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B58" s="46" t="s">
         <v>11</v>
@@ -16536,7 +16624,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>25</v>
@@ -16547,7 +16635,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B60" s="46" t="s">
         <v>281</v>
@@ -16558,7 +16646,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>63</v>
@@ -16569,7 +16657,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>28</v>
@@ -16580,77 +16668,89 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B63" s="48" t="s">
         <v>304</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B64" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>311</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03614C99-DFD4-484B-9539-42548FCAA648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05FC39D-5786-4B9B-80B1-B391CEE2F984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="311">
   <si>
     <t>produto</t>
   </si>
@@ -1525,8 +1525,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1676,7 +1676,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1694,7 +1696,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1721,7 +1725,9 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1764,7 +1770,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,7 +1886,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1917,7 +1927,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2077,7 +2089,9 @@
         <v>274</v>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -2133,7 +2147,9 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -2224,7 +2240,9 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05FC39D-5786-4B9B-80B1-B391CEE2F984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27402D8B-D17B-4724-A8E1-3EC91706B89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="314">
   <si>
     <t>produto</t>
   </si>
@@ -992,6 +992,15 @@
   </si>
   <si>
     <t>17/10/21 a 23/10/21</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1534,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1676,9 +1685,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1696,9 +1703,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1725,9 +1730,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1770,9 +1773,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,9 +1887,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1927,9 +1926,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2089,9 +2086,7 @@
         <v>274</v>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -2147,9 +2142,7 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -2240,9 +2233,7 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3234,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C978"/>
+  <dimension ref="A1:C977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3264,18 +3255,18 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>280</v>
@@ -3286,10 +3277,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>280</v>
@@ -3297,10 +3288,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>280</v>
@@ -4277,7 +4268,6 @@
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5308,10 +5298,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7193,6 +7183,86 @@
         <v>60</v>
       </c>
     </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="24">
+        <v>44499</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7201,10 +7271,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7394,6 +7464,14 @@
       </c>
       <c r="B23">
         <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="38">
+        <v>44499</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27402D8B-D17B-4724-A8E1-3EC91706B89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF920D-3B0E-4261-8589-C6AC6DFEE270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="314">
   <si>
     <t>produto</t>
   </si>
@@ -1534,8 +1534,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1685,7 +1685,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1694,7 +1696,9 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1703,7 +1707,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1755,7 +1761,9 @@
       <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1773,7 +1781,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,7 +1850,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1887,7 +1899,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1926,7 +1940,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2142,7 +2158,9 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
@@ -2233,7 +2251,9 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5300,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7273,8 +7293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF920D-3B0E-4261-8589-C6AC6DFEE270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DD7CC7-94A9-4578-8750-B52B5E8706A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="315">
   <si>
     <t>produto</t>
   </si>
@@ -1001,6 +1001,9 @@
   </si>
   <si>
     <t>Cláudia</t>
+  </si>
+  <si>
+    <t>31/10/21 a 06/10/21</t>
   </si>
 </sst>
 </file>
@@ -1010,11 +1013,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1248,62 +1258,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1534,8 +1545,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C79"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1637,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,6 +1650,9 @@
         <v>5</v>
       </c>
       <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1830,9 +1846,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1863,7 +1877,9 @@
         <v>5</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1911,9 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1943,6 +1957,9 @@
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D40" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2208,9 +2225,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -2230,9 +2245,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -16207,7 +16220,7 @@
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="A68" sqref="A65:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16849,16 +16862,48 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="23">
+        <v>200</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DD7CC7-94A9-4578-8750-B52B5E8706A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D317DA-3444-4A0A-B0E2-42E872DDBFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="313">
   <si>
     <t>produto</t>
   </si>
@@ -862,9 +862,6 @@
     <t>couve</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
     <t>melaço</t>
   </si>
   <si>
@@ -994,16 +991,13 @@
     <t>17/10/21 a 23/10/21</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
-    <t>Camila</t>
-  </si>
-  <si>
     <t>Cláudia</t>
   </si>
   <si>
     <t>31/10/21 a 06/10/21</t>
+  </si>
+  <si>
+    <t>almeirão catalonha</t>
   </si>
 </sst>
 </file>
@@ -1013,11 +1007,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1258,62 +1259,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1545,8 +1547,8 @@
   <dimension ref="A1:F1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1571,7 +1573,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>5</v>
@@ -1591,7 +1593,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>5</v>
@@ -1667,7 +1669,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>5</v>
@@ -1701,20 +1703,16 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1723,9 +1721,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1765,21 +1761,19 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1797,9 +1791,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,7 +1805,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>5</v>
@@ -1859,19 +1851,17 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>5</v>
@@ -1915,9 +1905,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1954,9 +1942,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="13" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +1958,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>5</v>
@@ -2116,7 +2102,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2151,7 +2137,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>5</v>
@@ -2175,13 +2161,11 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>5</v>
@@ -2264,9 +2248,7 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,7 +2269,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>5</v>
@@ -2295,7 +2277,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>5</v>
@@ -2304,7 +2286,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>5</v>
@@ -3258,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C977"/>
+  <dimension ref="A1:C976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3288,46 +3270,46 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4300,7 +4282,6 @@
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5331,10 +5312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+    <sheetView topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5596,8 +5577,8 @@
       <c r="A32" s="24">
         <v>44359</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>267</v>
+      <c r="B32" s="51" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5637,7 +5618,7 @@
         <v>44366</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5853,7 +5834,7 @@
         <v>44380</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5885,7 +5866,7 @@
         <v>44387</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5965,7 +5946,7 @@
         <v>44394</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -6069,7 +6050,7 @@
         <v>44401</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -6093,7 +6074,7 @@
         <v>44401</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -6141,7 +6122,7 @@
         <v>44408</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -6149,7 +6130,7 @@
         <v>44408</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -6221,7 +6202,7 @@
         <v>44415</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -6277,7 +6258,7 @@
         <v>44422</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -6349,7 +6330,7 @@
         <v>44429</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6357,7 +6338,7 @@
         <v>44429</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -6445,7 +6426,7 @@
         <v>44436</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -6517,7 +6498,7 @@
         <v>44443</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -6637,7 +6618,7 @@
         <v>44450</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6677,7 +6658,7 @@
         <v>44457</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -6693,7 +6674,7 @@
         <v>44457</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -6733,7 +6714,7 @@
         <v>44457</v>
       </c>
       <c r="B174" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -6765,7 +6746,7 @@
         <v>44464</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +6762,7 @@
         <v>44464</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -6813,7 +6794,7 @@
         <v>44471</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -6829,7 +6810,7 @@
         <v>44471</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +6826,7 @@
         <v>44471</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -6861,7 +6842,7 @@
         <v>44471</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -6901,7 +6882,7 @@
         <v>44478</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -6933,7 +6914,7 @@
         <v>44478</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +6962,7 @@
         <v>44478</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +7034,7 @@
         <v>44485</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -7101,7 +7082,7 @@
         <v>44485</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -7149,7 +7130,7 @@
         <v>44492</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -7197,7 +7178,7 @@
         <v>44492</v>
       </c>
       <c r="B232" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -7269,7 +7250,7 @@
         <v>44499</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -7293,8 +7274,99 @@
         <v>44499</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>300</v>
-      </c>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="24">
+        <v>44506</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7304,10 +7376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7320,7 +7392,7 @@
         <v>264</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7505,6 +7577,14 @@
       </c>
       <c r="B24">
         <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="38">
+        <v>44506</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -16233,18 +16313,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>265</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>20</v>
@@ -16252,7 +16332,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>48</v>
@@ -16260,7 +16340,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>63</v>
@@ -16268,7 +16348,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>21</v>
@@ -16276,7 +16356,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>25</v>
@@ -16284,7 +16364,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>53</v>
@@ -16292,7 +16372,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>59</v>
@@ -16300,7 +16380,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>60</v>
@@ -16308,7 +16388,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>61</v>
@@ -16316,7 +16396,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>63</v>
@@ -16324,7 +16404,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>31</v>
@@ -16332,15 +16412,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>59</v>
@@ -16348,7 +16428,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>6</v>
@@ -16356,7 +16436,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>9</v>
@@ -16364,7 +16444,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>8</v>
@@ -16372,7 +16452,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>10</v>
@@ -16380,7 +16460,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>11</v>
@@ -16388,72 +16468,72 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>6</v>
@@ -16462,7 +16542,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>8</v>
@@ -16471,7 +16551,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
@@ -16480,16 +16560,16 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>294</v>
       </c>
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>13</v>
@@ -16498,7 +16578,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>22</v>
@@ -16507,16 +16587,16 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>27</v>
@@ -16525,7 +16605,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>31</v>
@@ -16534,7 +16614,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>34</v>
@@ -16543,7 +16623,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>53</v>
@@ -16552,16 +16632,16 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>59</v>
@@ -16570,7 +16650,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>60</v>
@@ -16579,7 +16659,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>61</v>
@@ -16588,7 +16668,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>62</v>
@@ -16597,7 +16677,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>13</v>
@@ -16608,7 +16688,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>21</v>
@@ -16619,7 +16699,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>9</v>
@@ -16630,7 +16710,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>63</v>
@@ -16641,10 +16721,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="23">
         <v>50</v>
@@ -16652,10 +16732,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" s="23">
         <v>100</v>
@@ -16663,7 +16743,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>58</v>
@@ -16674,31 +16754,31 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>22</v>
@@ -16709,7 +16789,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>27</v>
@@ -16720,7 +16800,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>31</v>
@@ -16731,7 +16811,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>61</v>
@@ -16742,7 +16822,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B58" s="46" t="s">
         <v>11</v>
@@ -16753,7 +16833,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>25</v>
@@ -16764,10 +16844,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C60" s="23">
         <v>50</v>
@@ -16775,7 +16855,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>63</v>
@@ -16786,7 +16866,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>28</v>
@@ -16797,29 +16877,29 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="48" t="s">
         <v>308</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B64" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>25</v>
@@ -16830,7 +16910,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>31</v>
@@ -16841,7 +16921,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>59</v>
@@ -16852,7 +16932,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>61</v>
@@ -16863,7 +16943,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>34</v>
@@ -16874,7 +16954,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B70" s="50" t="s">
         <v>9</v>
@@ -16885,7 +16965,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B71" s="50" t="s">
         <v>10</v>
@@ -16896,10 +16976,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C72" s="23">
         <v>100</v>
@@ -16948,7 +17028,7 @@
         <v>44346</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -16956,7 +17036,7 @@
         <v>44350</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D317DA-3444-4A0A-B0E2-42E872DDBFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B38584-CE80-4892-9324-6301C83AC497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="313">
   <si>
     <t>produto</t>
   </si>
@@ -1548,7 +1548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1693,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,7 +1775,9 @@
       <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1791,7 +1795,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,7 +1862,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,7 +1886,9 @@
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1905,7 +1915,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1942,7 +1954,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D40" s="13" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2166,9 @@
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2189,7 +2205,9 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -2248,7 +2266,9 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B38584-CE80-4892-9324-6301C83AC497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8F3CD-6DB2-4E74-978B-DCDBBA6E06FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="313">
   <si>
     <t>produto</t>
   </si>
@@ -1007,11 +1007,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1259,62 +1266,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1327,7 +1335,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,7 +1556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1693,9 +1701,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,9 +1781,7 @@
       <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1795,9 +1799,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,9 +1864,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1886,9 +1886,7 @@
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1915,9 +1913,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1954,9 +1950,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="13" t="s">
         <v>5</v>
       </c>
@@ -2166,9 +2160,7 @@
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -2205,9 +2197,7 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -2266,9 +2256,7 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3260,7 +3248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C976"/>
+  <dimension ref="A1:C975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -3290,10 +3278,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>279</v>
@@ -3301,10 +3289,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>279</v>
@@ -3312,10 +3300,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>279</v>
@@ -3323,7 +3311,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>279</v>
@@ -4301,7 +4289,6 @@
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5332,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B268"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,7 +7373,108 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="24"/>
+      <c r="A256" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="52">
+        <v>44513</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8F3CD-6DB2-4E74-978B-DCDBBA6E06FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52346628-E411-446F-8E75-9116C6986E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="315">
   <si>
     <t>produto</t>
   </si>
@@ -994,10 +994,16 @@
     <t>Cláudia</t>
   </si>
   <si>
-    <t>31/10/21 a 06/10/21</t>
-  </si>
-  <si>
     <t>almeirão catalonha</t>
+  </si>
+  <si>
+    <t>mini repolho</t>
+  </si>
+  <si>
+    <t>14/11/21 a 20/11/21</t>
+  </si>
+  <si>
+    <t>31/10/21 a 06/11/21</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1013,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1266,62 +1279,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1334,8 +1348,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,11 +1566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1018"/>
+  <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1660,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="33"/>
@@ -1701,7 +1715,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,7 +1736,9 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1810,6 +1828,9 @@
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1864,7 +1885,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1913,7 +1936,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1923,7 +1948,9 @@
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1932,7 +1959,9 @@
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1951,9 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2125,93 +2152,96 @@
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B63" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B66" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="21"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
@@ -2221,86 +2251,99 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="5"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="21"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="13"/>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3240,6 +3283,7 @@
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3250,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C975"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5321,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B268"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,7 +7333,7 @@
         <v>44506</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,10 +7528,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7693,6 +7737,14 @@
       </c>
       <c r="B25">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="38">
+        <v>44513</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -16405,10 +16457,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A68" sqref="A65:A68"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17051,7 +17103,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>34</v>
@@ -17062,7 +17114,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B70" s="50" t="s">
         <v>9</v>
@@ -17073,7 +17125,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B71" s="50" t="s">
         <v>10</v>
@@ -17084,7 +17136,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B72" s="50" t="s">
         <v>274</v>
@@ -17094,13 +17146,77 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="23">
+        <v>200</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="23">
+        <v>200</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52346628-E411-446F-8E75-9116C6986E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE404AE-652F-44D4-8A35-94DFE9227909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="316">
   <si>
     <t>produto</t>
   </si>
@@ -976,9 +976,6 @@
     <t>27/09/21 a 01/10/21</t>
   </si>
   <si>
-    <t>Bernadete</t>
-  </si>
-  <si>
     <t>02/10/21 a 09/10/21</t>
   </si>
   <si>
@@ -991,9 +988,6 @@
     <t>17/10/21 a 23/10/21</t>
   </si>
   <si>
-    <t>Cláudia</t>
-  </si>
-  <si>
     <t>almeirão catalonha</t>
   </si>
   <si>
@@ -1004,6 +998,15 @@
   </si>
   <si>
     <t>31/10/21 a 06/11/21</t>
+  </si>
+  <si>
+    <t>salgados veganos (por Amanda Correia)</t>
+  </si>
+  <si>
+    <t>Claúdia</t>
+  </si>
+  <si>
+    <t>Tia da Cláudia</t>
   </si>
 </sst>
 </file>
@@ -1013,11 +1016,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1279,62 +1296,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1346,9 +1365,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,9 +1587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1715,9 +1734,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,9 +1753,7 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1828,9 +1843,6 @@
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -1840,6 +1852,9 @@
         <v>5</v>
       </c>
       <c r="C26" s="13"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1885,9 +1900,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1936,9 +1949,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1959,9 +1970,7 @@
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2153,14 +2162,12 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -2207,9 +2214,7 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2276,9 +2281,7 @@
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2298,9 +2301,7 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3292,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C975"/>
+  <dimension ref="A1:C974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3322,21 +3323,21 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>279</v>
@@ -3344,7 +3345,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>279</v>
@@ -3355,7 +3356,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>279</v>
@@ -4332,7 +4333,6 @@
     <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5363,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B268"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7333,7 +7333,7 @@
         <v>44506</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -7518,6 +7518,86 @@
       </c>
       <c r="B268" s="13" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B270" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="24">
+        <v>44520</v>
+      </c>
+      <c r="B278" s="55" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7528,10 +7608,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7745,6 +7825,14 @@
       </c>
       <c r="B26">
         <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="38">
+        <v>44520</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -16460,7 +16548,7 @@
   <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16938,7 +17026,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>22</v>
@@ -16949,7 +17037,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>27</v>
@@ -16960,7 +17048,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>31</v>
@@ -16971,7 +17059,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>61</v>
@@ -16982,7 +17070,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B58" s="46" t="s">
         <v>11</v>
@@ -16993,7 +17081,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>25</v>
@@ -17004,7 +17092,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B60" s="46" t="s">
         <v>280</v>
@@ -17015,7 +17103,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>63</v>
@@ -17026,7 +17114,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>28</v>
@@ -17037,29 +17125,29 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B63" s="48" t="s">
         <v>303</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B64" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>25</v>
@@ -17070,7 +17158,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>31</v>
@@ -17081,7 +17169,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>59</v>
@@ -17092,7 +17180,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>61</v>
@@ -17103,7 +17191,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>34</v>
@@ -17114,7 +17202,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B70" s="50" t="s">
         <v>9</v>
@@ -17125,7 +17213,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B71" s="50" t="s">
         <v>10</v>
@@ -17136,7 +17224,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B72" s="50" t="s">
         <v>274</v>
@@ -17147,7 +17235,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B73" s="53" t="s">
         <v>31</v>
@@ -17158,10 +17246,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B74" s="53" t="s">
-        <v>22</v>
+        <v>311</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>282</v>
       </c>
       <c r="C74" s="23">
         <v>200</v>
@@ -17169,7 +17257,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B75" s="53" t="s">
         <v>9</v>
@@ -17180,7 +17268,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B76" s="53" t="s">
         <v>10</v>
@@ -17191,7 +17279,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B77" s="53" t="s">
         <v>274</v>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE404AE-652F-44D4-8A35-94DFE9227909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD988D9-CD5F-48A7-9C2C-9B17A8514A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="316">
   <si>
     <t>produto</t>
   </si>
@@ -1589,7 +1589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1619,9 @@
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,7 +1707,9 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1836,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,7 +1906,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,7 +1930,9 @@
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1949,7 +1959,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2214,7 +2226,9 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2242,7 +2256,9 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2301,7 +2317,9 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2333,6 +2351,9 @@
         <v>298</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="21"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD988D9-CD5F-48A7-9C2C-9B17A8514A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE193FFD-A63D-4257-94B8-F4F29C2327E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="705" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="318">
   <si>
     <t>produto</t>
   </si>
@@ -1003,10 +1003,16 @@
     <t>salgados veganos (por Amanda Correia)</t>
   </si>
   <si>
-    <t>Claúdia</t>
-  </si>
-  <si>
-    <t>Tia da Cláudia</t>
+    <t>acerolas congeladas</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
   </si>
 </sst>
 </file>
@@ -1016,11 +1022,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1296,62 +1309,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1364,8 +1378,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1589,7 +1603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,9 +1633,7 @@
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1707,9 +1719,7 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,9 +1846,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,9 +1914,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1930,9 +1936,7 @@
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -1959,9 +1963,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2226,9 +2228,7 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2256,9 +2256,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2317,9 +2315,7 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,9 +2347,6 @@
         <v>298</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="21"/>
@@ -3314,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C974"/>
+  <dimension ref="A1:C973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3344,21 +3337,21 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>279</v>
@@ -3366,26 +3359,16 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44548</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4353,7 +4336,6 @@
     <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5384,10 +5366,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7621,6 +7603,86 @@
         <v>313</v>
       </c>
     </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="24">
+        <v>44527</v>
+      </c>
+      <c r="B288" s="56" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7629,10 +7691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7854,6 +7916,14 @@
       </c>
       <c r="B27">
         <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="38">
+        <v>44527</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE193FFD-A63D-4257-94B8-F4F29C2327E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2334AE8A-12AB-46DA-B7F5-23C1B88894F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="705" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28140" yWindow="-2625" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="321">
   <si>
     <t>produto</t>
   </si>
@@ -1013,6 +1013,15 @@
   </si>
   <si>
     <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>28/11/21 a 04/12/21</t>
+  </si>
+  <si>
+    <t>Feliz Natal!</t>
+  </si>
+  <si>
+    <t>Sem entregas.</t>
   </si>
 </sst>
 </file>
@@ -1022,11 +1031,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1309,62 +1325,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1377,8 +1394,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1602,8 +1619,8 @@
   <dimension ref="A1:F1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1694,9 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="13"/>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,7 +1763,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,7 +1775,9 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1803,7 +1822,9 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1846,7 +1867,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,7 +1937,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,9 +1950,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1963,7 +1986,9 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2002,7 +2027,9 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,7 +2255,9 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2341,12 +2370,18 @@
       <c r="B77" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="21"/>
@@ -3310,7 +3345,7 @@
   <dimension ref="A1:C973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3368,7 +3403,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44555</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16638,8 +16683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17379,11 +17424,38 @@
         <v>100</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="23">
+        <v>100</v>
+      </c>
+    </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
+      <c r="A79" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="23">
+        <v>200</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="13"/>
+      <c r="A80" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="23">
+        <v>200</v>
+      </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2334AE8A-12AB-46DA-B7F5-23C1B88894F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCECD903-30E5-4645-A006-5849790D57C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28140" yWindow="-2625" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -1006,9 +1006,6 @@
     <t>acerolas congeladas</t>
   </si>
   <si>
-    <t>Renato</t>
-  </si>
-  <si>
     <t>Cláudia</t>
   </si>
   <si>
@@ -1022,6 +1019,9 @@
   </si>
   <si>
     <t>Sem entregas.</t>
+  </si>
+  <si>
+    <t>Feliz ano novo!</t>
   </si>
 </sst>
 </file>
@@ -1618,9 +1618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1763,9 +1763,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,9 +1773,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1822,9 +1818,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1867,9 +1861,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,9 +1929,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,9 +1976,7 @@
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -2027,9 +2015,7 @@
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,9 +2241,7 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2370,18 +2354,12 @@
       <c r="B77" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="21"/>
@@ -3342,10 +3320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C973"/>
+  <dimension ref="A1:C972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3372,7 +3350,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>315</v>
@@ -3383,7 +3361,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>316</v>
@@ -3394,24 +3372,24 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44548</v>
+        <v>44555</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44555</v>
+        <v>44562</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4380,7 +4358,6 @@
     <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5411,10 +5388,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="F287" sqref="F287"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7726,6 +7703,86 @@
       </c>
       <c r="B288" s="56" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B293" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="24">
+        <v>44534</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -17426,7 +17483,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B78" s="57" t="s">
         <v>10</v>
@@ -17437,7 +17494,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>282</v>
@@ -17448,7 +17505,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B80" s="53" t="s">
         <v>31</v>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCECD903-30E5-4645-A006-5849790D57C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D6CED7-1411-4309-B1D9-1BD301F4158A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="325">
   <si>
     <t>produto</t>
   </si>
@@ -1022,6 +1022,18 @@
   </si>
   <si>
     <t>Feliz ano novo!</t>
+  </si>
+  <si>
+    <t>Reconhecimento do território; vivência técnia e aprendizados empíricos sobre o modo de produção agroflorestal; podas de árvores frutíferas para adubar futuras plantas e plantios</t>
+  </si>
+  <si>
+    <t>Aberto ao público geral!</t>
+  </si>
+  <si>
+    <t>acerolas (congeladas)</t>
+  </si>
+  <si>
+    <t>05/12/21 a 11/12/21</t>
   </si>
 </sst>
 </file>
@@ -1031,11 +1043,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1325,62 +1344,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1393,12 +1413,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1618,9 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1655,12 +1678,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,6 +1706,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,7 +1739,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,7 +1751,9 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
@@ -1735,6 +1767,9 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="D10" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,8 +1798,12 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1861,8 +1900,12 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1881,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" t="s">
+      <c r="D26" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1911,7 +1954,9 @@
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1929,7 +1974,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1940,7 +1987,9 @@
         <v>5</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -1986,9 +2035,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2241,7 +2288,9 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2269,7 +2318,9 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2309,7 +2360,9 @@
         <v>5</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="21"/>
+      <c r="D72" s="21" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -2328,7 +2381,9 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2360,6 +2415,9 @@
         <v>298</v>
       </c>
       <c r="B78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="21"/>
@@ -4369,7 +4427,7 @@
   <dimension ref="A1:C996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4394,8 +4452,16 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:3" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44542</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -5382,7 +5448,7 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5390,8 +5456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
   <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="J282" sqref="J282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16738,10 +16804,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17514,17 +17580,109 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B86" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="59" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D6CED7-1411-4309-B1D9-1BD301F4158A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B2B54-BA36-470E-A54E-F53B967C982B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="326">
   <si>
     <t>produto</t>
   </si>
@@ -1034,6 +1034,9 @@
   </si>
   <si>
     <t>05/12/21 a 11/12/21</t>
+  </si>
+  <si>
+    <t>Débora</t>
   </si>
 </sst>
 </file>
@@ -1641,9 +1644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3380,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C972"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3414,7 +3417,7 @@
         <v>315</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B2B54-BA36-470E-A54E-F53B967C982B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055DA434-DB21-4A4E-A150-21C5CE23C0DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1035" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="324">
   <si>
     <t>produto</t>
   </si>
@@ -1006,9 +1006,6 @@
     <t>acerolas congeladas</t>
   </si>
   <si>
-    <t>Cláudia</t>
-  </si>
-  <si>
     <t>Ana Beatriz</t>
   </si>
   <si>
@@ -1034,9 +1031,6 @@
   </si>
   <si>
     <t>05/12/21 a 11/12/21</t>
-  </si>
-  <si>
-    <t>Débora</t>
   </si>
 </sst>
 </file>
@@ -1046,11 +1040,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1347,62 +1348,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1415,16 +1417,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1644,9 +1646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1681,14 +1683,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1754,9 +1754,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
@@ -1801,9 +1799,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
@@ -1903,9 +1899,7 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1977,9 +1971,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,9 +2283,7 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2321,9 +2311,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2384,9 +2372,7 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2420,9 +2406,7 @@
       <c r="B78" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C972"/>
+  <dimension ref="A1:C971"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3411,48 +3395,38 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>315</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44548</v>
+        <v>44555</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44555</v>
+        <v>44562</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44562</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4418,7 +4392,6 @@
     <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4427,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C996"/>
+  <dimension ref="A1:C995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4455,20 +4428,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>44542</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5448,7 +5411,6 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5457,10 +5419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="J282" sqref="J282"/>
+    <sheetView topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299:B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7854,6 +7816,86 @@
         <v>298</v>
       </c>
     </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="24">
+        <v>44541</v>
+      </c>
+      <c r="B308" s="60" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7862,10 +7904,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8095,6 +8137,22 @@
       </c>
       <c r="B28">
         <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="38">
+        <v>44534</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="38">
+        <v>44541</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -16809,8 +16867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485FD73-227A-4AA7-8321-07690C89BAF0}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17552,7 +17610,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B78" s="57" t="s">
         <v>10</v>
@@ -17563,7 +17621,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>282</v>
@@ -17574,7 +17632,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80" s="53" t="s">
         <v>31</v>
@@ -17585,7 +17643,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>282</v>
@@ -17596,7 +17654,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>9</v>
@@ -17607,7 +17665,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>10</v>
@@ -17618,7 +17676,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>274</v>
@@ -17629,7 +17687,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>21</v>
@@ -17640,7 +17698,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="59" t="s">
         <v>13</v>
@@ -17651,7 +17709,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="59" t="s">
         <v>11</v>
@@ -17662,7 +17720,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88" s="59" t="s">
         <v>6</v>
@@ -17673,7 +17731,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B89" s="59" t="s">
         <v>25</v>
@@ -17681,7 +17739,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B90" s="59" t="s">
         <v>61</v>
@@ -17698,7 +17756,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17758,8 +17816,16 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>44542</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055DA434-DB21-4A4E-A150-21C5CE23C0DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF334B2-DD53-46F7-8412-4FA8C96EFE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1035" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="324">
   <si>
     <t>produto</t>
   </si>
@@ -898,9 +898,6 @@
     <t>cogumelo shimeji (produção do Yuri)</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t xml:space="preserve">abobrinha </t>
   </si>
   <si>
@@ -1031,6 +1028,9 @@
   </si>
   <si>
     <t>05/12/21 a 11/12/21</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
   </si>
 </sst>
 </file>
@@ -1646,9 +1646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>5</v>
@@ -1683,17 +1683,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>5</v>
@@ -1775,7 +1777,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>5</v>
@@ -1799,7 +1801,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="13" t="s">
         <v>5</v>
       </c>
@@ -1811,11 +1815,13 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1876,12 +1882,14 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1899,7 +1907,9 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1915,7 +1925,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>5</v>
@@ -1966,12 +1976,14 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2083,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>5</v>
@@ -2231,7 +2243,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>5</v>
@@ -2259,7 +2271,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>5</v>
@@ -2283,11 +2295,13 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>5</v>
@@ -2311,7 +2325,9 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2372,7 +2388,9 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2401,17 +2419,19 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="21"/>
+      <c r="C78" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>5</v>
@@ -3367,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C971"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3398,10 +3418,10 @@
         <v>44548</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,10 +3429,10 @@
         <v>44555</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,10 +3440,10 @@
         <v>44562</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5422,7 +5442,7 @@
   <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299:B308"/>
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,7 +6745,7 @@
         <v>44450</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -6765,7 +6785,7 @@
         <v>44457</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +6801,7 @@
         <v>44457</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -6821,7 +6841,7 @@
         <v>44457</v>
       </c>
       <c r="B174" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -6853,7 +6873,7 @@
         <v>44464</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -6869,7 +6889,7 @@
         <v>44464</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -6901,7 +6921,7 @@
         <v>44471</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -6917,7 +6937,7 @@
         <v>44471</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -6933,7 +6953,7 @@
         <v>44471</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -6949,7 +6969,7 @@
         <v>44471</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -6989,7 +7009,7 @@
         <v>44478</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -7021,7 +7041,7 @@
         <v>44478</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7089,7 @@
         <v>44478</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,7 +7161,7 @@
         <v>44485</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -7189,7 +7209,7 @@
         <v>44485</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -7237,7 +7257,7 @@
         <v>44492</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -7285,7 +7305,7 @@
         <v>44492</v>
       </c>
       <c r="B232" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -7381,7 +7401,7 @@
         <v>44499</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -7389,7 +7409,7 @@
         <v>44506</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -7397,7 +7417,7 @@
         <v>44506</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -7413,7 +7433,7 @@
         <v>44506</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -7429,7 +7449,7 @@
         <v>44506</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -7493,7 +7513,7 @@
         <v>44513</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -7509,7 +7529,7 @@
         <v>44513</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -7589,7 +7609,7 @@
         <v>44520</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -7597,7 +7617,7 @@
         <v>44520</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -7621,7 +7641,7 @@
         <v>44520</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -7629,7 +7649,7 @@
         <v>44520</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -7653,7 +7673,7 @@
         <v>44520</v>
       </c>
       <c r="B278" s="55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -7661,7 +7681,7 @@
         <v>44527</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -7725,7 +7745,7 @@
         <v>44527</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -7733,7 +7753,7 @@
         <v>44527</v>
       </c>
       <c r="B288" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -7773,7 +7793,7 @@
         <v>44534</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -7813,7 +7833,7 @@
         <v>44534</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -7821,7 +7841,7 @@
         <v>44541</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -7853,7 +7873,7 @@
         <v>44541</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -7885,7 +7905,7 @@
         <v>44541</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -7920,7 +7940,7 @@
         <v>264</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16887,7 +16907,7 @@
         <v>265</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,72 +17056,72 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>6</v>
@@ -17110,7 +17130,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>8</v>
@@ -17119,7 +17139,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>9</v>
@@ -17128,16 +17148,16 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>293</v>
       </c>
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>13</v>
@@ -17146,7 +17166,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>22</v>
@@ -17155,7 +17175,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>274</v>
@@ -17164,7 +17184,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>27</v>
@@ -17173,7 +17193,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>31</v>
@@ -17182,7 +17202,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>34</v>
@@ -17191,7 +17211,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>53</v>
@@ -17200,16 +17220,16 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>59</v>
@@ -17218,7 +17238,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>60</v>
@@ -17227,7 +17247,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>61</v>
@@ -17236,7 +17256,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>62</v>
@@ -17245,7 +17265,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>13</v>
@@ -17256,7 +17276,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>21</v>
@@ -17267,7 +17287,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>9</v>
@@ -17278,7 +17298,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>63</v>
@@ -17289,10 +17309,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C48" s="23">
         <v>50</v>
@@ -17300,10 +17320,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C49" s="23">
         <v>100</v>
@@ -17311,7 +17331,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>58</v>
@@ -17322,31 +17342,31 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>22</v>
@@ -17357,7 +17377,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>27</v>
@@ -17368,7 +17388,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>31</v>
@@ -17379,7 +17399,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>61</v>
@@ -17390,7 +17410,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B58" s="46" t="s">
         <v>11</v>
@@ -17401,7 +17421,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>25</v>
@@ -17412,10 +17432,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" s="23">
         <v>50</v>
@@ -17423,7 +17443,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>63</v>
@@ -17434,7 +17454,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>28</v>
@@ -17445,29 +17465,29 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="48" t="s">
         <v>306</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B64" s="48" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>25</v>
@@ -17478,7 +17498,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>31</v>
@@ -17489,7 +17509,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>59</v>
@@ -17500,7 +17520,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>61</v>
@@ -17511,7 +17531,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B69" s="50" t="s">
         <v>34</v>
@@ -17522,7 +17542,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B70" s="50" t="s">
         <v>9</v>
@@ -17533,7 +17553,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71" s="50" t="s">
         <v>10</v>
@@ -17544,7 +17564,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B72" s="50" t="s">
         <v>274</v>
@@ -17555,7 +17575,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B73" s="53" t="s">
         <v>31</v>
@@ -17566,10 +17586,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C74" s="23">
         <v>200</v>
@@ -17577,7 +17597,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B75" s="53" t="s">
         <v>9</v>
@@ -17588,7 +17608,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B76" s="53" t="s">
         <v>10</v>
@@ -17599,7 +17619,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B77" s="53" t="s">
         <v>274</v>
@@ -17610,7 +17630,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78" s="57" t="s">
         <v>10</v>
@@ -17621,10 +17641,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C79" s="23">
         <v>200</v>
@@ -17632,7 +17652,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B80" s="53" t="s">
         <v>31</v>
@@ -17643,10 +17663,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C81" s="23">
         <v>300</v>
@@ -17654,7 +17674,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>9</v>
@@ -17665,7 +17685,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>10</v>
@@ -17676,7 +17696,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>274</v>
@@ -17687,7 +17707,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>21</v>
@@ -17698,7 +17718,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B86" s="59" t="s">
         <v>13</v>
@@ -17709,7 +17729,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B87" s="59" t="s">
         <v>11</v>
@@ -17720,7 +17740,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B88" s="59" t="s">
         <v>6</v>
@@ -17731,7 +17751,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B89" s="59" t="s">
         <v>25</v>
@@ -17739,7 +17759,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B90" s="59" t="s">
         <v>61</v>
@@ -17821,10 +17841,10 @@
         <v>44542</v>
       </c>
       <c r="B7" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>320</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR.EMBAD.000\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF334B2-DD53-46F7-8412-4FA8C96EFE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFBB632-0DA4-43FC-9556-AFC8C99663D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="-3375" windowWidth="28920" windowHeight="16320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="322">
   <si>
     <t>produto</t>
   </si>
@@ -1003,21 +1003,9 @@
     <t>acerolas congeladas</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>28/11/21 a 04/12/21</t>
   </si>
   <si>
-    <t>Feliz Natal!</t>
-  </si>
-  <si>
-    <t>Sem entregas.</t>
-  </si>
-  <si>
-    <t>Feliz ano novo!</t>
-  </si>
-  <si>
     <t>Reconhecimento do território; vivência técnia e aprendizados empíricos sobre o modo de produção agroflorestal; podas de árvores frutíferas para adubar futuras plantas e plantios</t>
   </si>
   <si>
@@ -1030,7 +1018,13 @@
     <t>05/12/21 a 11/12/21</t>
   </si>
   <si>
-    <t>Bernadete</t>
+    <t>???</t>
+  </si>
+  <si>
+    <t>erva cidreira</t>
+  </si>
+  <si>
+    <t>berinjela</t>
   </si>
 </sst>
 </file>
@@ -1040,11 +1034,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1348,62 +1349,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1416,16 +1418,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -1647,8 +1649,8 @@
   <dimension ref="A1:F1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C81"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1683,14 +1685,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,9 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="21"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,9 +1742,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="13"/>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,9 +1753,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D9" s="13"/>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,9 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="21"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,12 +1793,8 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1815,9 +1803,7 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1887,9 +1873,7 @@
       <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1907,12 +1891,8 @@
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1931,9 +1911,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1961,9 +1939,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1981,9 +1957,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,9 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2295,9 +2267,7 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -2325,9 +2295,7 @@
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2367,9 +2335,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -2388,9 +2354,7 @@
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,9 +2388,7 @@
       <c r="B78" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C971"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3415,38 +3377,48 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>44548</v>
+        <v>44583</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44555</v>
+        <v>44590</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44562</v>
+        <v>44597</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44604</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4422,7 +4394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5439,10 +5411,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7841,7 +7813,7 @@
         <v>44541</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -7914,6 +7886,238 @@
       </c>
       <c r="B308" s="60" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B314" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B317" s="61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B318" s="61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B319" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="24">
+        <v>44548</v>
+      </c>
+      <c r="B320" s="61" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="24">
+        <v>44569</v>
+      </c>
+      <c r="B321" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="24">
+        <v>44569</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="24">
+        <v>44569</v>
+      </c>
+      <c r="B323" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="24">
+        <v>44569</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="24">
+        <v>44569</v>
+      </c>
+      <c r="B325" s="61" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="24">
+        <v>44569</v>
+      </c>
+      <c r="B326" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="24">
+        <v>44569</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B328" s="61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B329" s="61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B330" s="61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B331" s="61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B332" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B334" s="61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B335" s="61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B336" s="61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="24">
+        <v>44576</v>
+      </c>
+      <c r="B337" s="61" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7924,10 +8128,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8173,6 +8377,30 @@
       </c>
       <c r="B30">
         <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="38">
+        <v>44548</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="38">
+        <v>44569</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="38">
+        <v>44576</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -16888,7 +17116,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+      <selection activeCell="B90" sqref="A81:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17630,7 +17858,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B78" s="57" t="s">
         <v>10</v>
@@ -17641,7 +17869,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>281</v>
@@ -17652,7 +17880,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B80" s="53" t="s">
         <v>31</v>
@@ -17663,7 +17891,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>281</v>
@@ -17674,7 +17902,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>9</v>
@@ -17685,7 +17913,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>10</v>
@@ -17696,7 +17924,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>274</v>
@@ -17707,7 +17935,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>21</v>
@@ -17718,7 +17946,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B86" s="59" t="s">
         <v>13</v>
@@ -17729,7 +17957,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B87" s="59" t="s">
         <v>11</v>
@@ -17740,7 +17968,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B88" s="59" t="s">
         <v>6</v>
@@ -17751,7 +17979,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B89" s="59" t="s">
         <v>25</v>
@@ -17759,7 +17987,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="59" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B90" s="59" t="s">
         <v>61</v>
@@ -17841,10 +18069,10 @@
         <v>44542</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166EA8B-9B3E-4903-B990-644826FE2126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A8D40-E4CA-4E2B-A8C7-02F9BE358E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="323">
   <si>
     <t>produto</t>
   </si>
@@ -1025,6 +1027,9 @@
   </si>
   <si>
     <t>berinjela</t>
+  </si>
+  <si>
+    <t>abóbora</t>
   </si>
 </sst>
 </file>
@@ -1034,11 +1039,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1356,62 +1368,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1424,16 +1437,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1657,8 +1670,8 @@
   <dimension ref="A1:F1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1829,9 +1842,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1977,9 +1988,7 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2170,9 +2179,7 @@
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -2181,9 +2188,7 @@
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -2283,9 +2288,7 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
@@ -2362,9 +2365,7 @@
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3367,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C970"/>
+  <dimension ref="A1:C969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3397,7 +3398,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44590</v>
+        <v>44597</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>319</v>
@@ -3408,7 +3409,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44597</v>
+        <v>44604</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>319</v>
@@ -3419,7 +3420,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44604</v>
+        <v>44611</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>319</v>
@@ -3428,7 +3429,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>44618</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4392,7 +4403,6 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5420,10 +5430,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
-    <sheetView topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8193,6 +8203,70 @@
         <v>15</v>
       </c>
     </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B346" s="63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B347" s="63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B348" s="63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B349" s="63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B350" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B351" s="63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B352" s="63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="24">
+        <v>44590</v>
+      </c>
+      <c r="B353" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8201,10 +8275,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8482,6 +8556,14 @@
       </c>
       <c r="B34">
         <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <v>44590</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A8D40-E4CA-4E2B-A8C7-02F9BE358E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB84891D-54E1-4BF6-B2E9-36A68352F232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="326">
   <si>
     <t>produto</t>
   </si>
@@ -1030,6 +1030,15 @@
   </si>
   <si>
     <t>abóbora</t>
+  </si>
+  <si>
+    <t>plantios em geral</t>
+  </si>
+  <si>
+    <t>todos estão convidados!</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
   </si>
 </sst>
 </file>
@@ -1039,11 +1048,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1368,62 +1384,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1436,16 +1453,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1670,8 +1687,8 @@
   <dimension ref="A1:F1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1831,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1842,7 +1861,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1978,7 +1999,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1988,7 +2011,9 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2188,7 +2213,9 @@
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -2279,7 +2306,9 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -2288,7 +2317,9 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
@@ -3368,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C969"/>
+  <dimension ref="A1:C968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3398,7 +3429,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44597</v>
+        <v>44604</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>319</v>
@@ -3409,10 +3440,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44604</v>
+        <v>44611</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>319</v>
@@ -3420,7 +3451,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>319</v>
@@ -3431,7 +3462,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>319</v>
@@ -4402,7 +4433,6 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4414,7 +4444,7 @@
   <dimension ref="A1:C995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4440,7 +4470,15 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9">
+        <v>44605</v>
+      </c>
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5430,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="B344" sqref="B344"/>
+      <selection activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8267,6 +8305,63 @@
         <v>47</v>
       </c>
     </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="24">
+        <v>44597</v>
+      </c>
+      <c r="B354" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="24">
+        <v>44597</v>
+      </c>
+      <c r="B355" s="64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="24">
+        <v>44597</v>
+      </c>
+      <c r="B356" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="24">
+        <v>44597</v>
+      </c>
+      <c r="B357" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="24">
+        <v>44597</v>
+      </c>
+      <c r="B358" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="24">
+        <v>44597</v>
+      </c>
+      <c r="B359" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="24"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="24"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8275,10 +8370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8564,6 +8659,16 @@
       </c>
       <c r="B35">
         <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="38">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="38">
+        <v>44604</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB84891D-54E1-4BF6-B2E9-36A68352F232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6944DF1-6B71-4A66-A727-73AD43E097EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="325">
   <si>
     <t>produto</t>
   </si>
@@ -1032,13 +1032,10 @@
     <t>abóbora</t>
   </si>
   <si>
-    <t>plantios em geral</t>
-  </si>
-  <si>
-    <t>todos estão convidados!</t>
-  </si>
-  <si>
     <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>salada de shimeji em conserva</t>
   </si>
 </sst>
 </file>
@@ -1048,11 +1045,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1384,62 +1388,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1452,16 +1457,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1687,8 +1692,8 @@
   <dimension ref="A1:F1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1831,13 +1836,11 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
         <v>262</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1861,9 +1864,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1999,9 +2000,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2011,9 +2010,7 @@
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2213,9 +2210,7 @@
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -2306,9 +2301,7 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -2317,9 +2310,7 @@
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
@@ -3443,7 +3434,7 @@
         <v>44611</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>319</v>
@@ -4441,10 +4432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C995"/>
+  <dimension ref="A1:C994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4469,17 +4460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>44605</v>
-      </c>
-      <c r="B3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" t="s">
-        <v>324</v>
-      </c>
-    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5459,7 +5440,6 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5468,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="A357" sqref="A357"/>
+    <sheetView topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8354,13 +8334,76 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="24"/>
+      <c r="A360" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B360" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="24"/>
+      <c r="A361" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B361" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="24"/>
+      <c r="A362" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B362" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B363" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B364" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B365" s="65" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B366" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B367" s="65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="24">
+        <v>44604</v>
+      </c>
+      <c r="B368" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8373,7 +8416,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8665,10 +8708,16 @@
       <c r="A36" s="38">
         <v>44597</v>
       </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>44604</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6944DF1-6B71-4A66-A727-73AD43E097EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289E07C-F9D6-4095-B6AB-FC68A784C990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="325">
   <si>
     <t>produto</t>
   </si>
@@ -1691,9 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1891,7 +1891,9 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1991,7 +1993,9 @@
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
@@ -2201,7 +2205,9 @@
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -2210,7 +2216,9 @@
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -2301,7 +2309,9 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -2367,7 +2377,9 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2404,8 +2416,12 @@
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -3390,9 +3406,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C968"/>
+  <dimension ref="A1:C967"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3420,10 +3436,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44604</v>
+        <v>44611</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>319</v>
@@ -3431,10 +3447,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>319</v>
@@ -3442,7 +3458,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>319</v>
@@ -3451,17 +3467,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>44625</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4423,7 +4429,6 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3289E07C-F9D6-4095-B6AB-FC68A784C990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FBC49-9AE1-4E70-9AFC-B1C84A8A372F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="326">
   <si>
     <t>produto</t>
   </si>
@@ -1032,10 +1032,13 @@
     <t>abóbora</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>salada de shimeji em conserva</t>
+  </si>
+  <si>
+    <t>folhas de hibisco/vinagreira</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
   </si>
 </sst>
 </file>
@@ -1045,11 +1048,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1388,62 +1398,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1456,16 +1467,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1689,11 +1700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1019"/>
+  <dimension ref="A1:F1020"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1891,9 +1902,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1993,9 +2002,7 @@
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
@@ -2155,17 +2162,17 @@
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -2173,196 +2180,189 @@
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B64" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="21"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="21"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
@@ -2372,60 +2372,57 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="5"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="21"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="5"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
@@ -2433,32 +2430,40 @@
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="A77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3398,6 +3403,7 @@
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3406,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C967"/>
+  <dimension ref="A1:C966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3436,10 +3442,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>319</v>
@@ -3447,7 +3453,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>319</v>
@@ -3458,7 +3464,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>319</v>
@@ -3467,7 +3473,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>44639</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4428,7 +4444,6 @@
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5453,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368"/>
+    <sheetView topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8383,7 +8398,7 @@
         <v>44604</v>
       </c>
       <c r="B365" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -8408,6 +8423,86 @@
       </c>
       <c r="B368" s="13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B369" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B370" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B371" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B372" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B373" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B374" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B375" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B376" s="66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B377" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B378" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8418,10 +8513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8723,6 +8818,14 @@
       </c>
       <c r="B37">
         <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="38">
+        <v>44611</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FBC49-9AE1-4E70-9AFC-B1C84A8A372F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1289A51D-5BBC-4B62-A72F-7294AE5037A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="326">
   <si>
     <t>produto</t>
   </si>
@@ -1048,11 +1048,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1398,62 +1405,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1466,16 +1474,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1700,11 +1708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1020"/>
+  <dimension ref="A1:F1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1855,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1875,7 +1885,9 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2080,72 +2092,74 @@
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="13"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B43" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -2154,7 +2168,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -2162,26 +2176,26 @@
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -2189,190 +2203,197 @@
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B68" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="21"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="21"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
@@ -2382,56 +2403,57 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="5"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="21"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="13"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="5"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
@@ -2439,47 +2461,55 @@
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3404,6 +3434,7 @@
     <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5468,10 +5499,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
+      <selection activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8503,6 +8534,14 @@
       </c>
       <c r="B378" s="13" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="24">
+        <v>44611</v>
+      </c>
+      <c r="B379" s="67" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1289A51D-5BBC-4B62-A72F-7294AE5037A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB060E-CD61-482F-B69B-6FA164B93337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="325">
   <si>
     <t>produto</t>
   </si>
@@ -1036,9 +1036,6 @@
   </si>
   <si>
     <t>folhas de hibisco/vinagreira</t>
-  </si>
-  <si>
-    <t>Cláudia</t>
   </si>
 </sst>
 </file>
@@ -1048,11 +1045,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1405,62 +1409,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1473,16 +1478,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1711,8 +1716,8 @@
   <dimension ref="A1:F1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1855,9 +1860,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1885,9 +1888,7 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2098,9 +2099,7 @@
       <c r="B39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -2244,9 +2243,7 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -2255,9 +2252,7 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -2348,9 +2343,7 @@
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -2359,9 +2352,7 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
@@ -3443,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C966"/>
+  <dimension ref="A1:C965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3473,10 +3464,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>319</v>
@@ -3484,7 +3475,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>319</v>
@@ -3495,7 +3486,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>319</v>
@@ -3504,17 +3495,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>44639</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4474,7 +4455,6 @@
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5499,10 +5479,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A379" sqref="A379"/>
+    <sheetView topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8544,6 +8524,86 @@
         <v>50</v>
       </c>
     </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B380" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B381" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B382" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B383" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B384" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B385" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B386" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B387" s="68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B388" s="68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="24">
+        <v>44618</v>
+      </c>
+      <c r="B389" s="68" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8552,10 +8612,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8865,6 +8925,14 @@
       </c>
       <c r="B38">
         <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="38">
+        <v>44618</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB060E-CD61-482F-B69B-6FA164B93337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A4D67-FA15-4AE2-9D66-166A84CE7FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="329">
   <si>
     <t>produto</t>
   </si>
@@ -1036,6 +1036,18 @@
   </si>
   <si>
     <t>folhas de hibisco/vinagreira</t>
+  </si>
+  <si>
+    <t>Bernadete</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
   </si>
 </sst>
 </file>
@@ -1715,9 +1727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1831,9 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="F9" s="33"/>
     </row>
@@ -1860,7 +1874,9 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1915,7 +1931,9 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -2099,7 +2117,9 @@
       <c r="B39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -2252,7 +2272,9 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -2261,7 +2283,9 @@
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3436,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C965"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3467,10 +3491,10 @@
         <v>44625</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3478,10 +3502,10 @@
         <v>44632</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3489,13 +3513,23 @@
         <v>44639</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>44646</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C6" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A4D67-FA15-4AE2-9D66-166A84CE7FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499E54-3B38-441E-B648-7E778A2C94CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="328">
   <si>
     <t>produto</t>
   </si>
@@ -1018,9 +1018,6 @@
   </si>
   <si>
     <t>05/12/21 a 11/12/21</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>erva cidreira</t>
@@ -1057,11 +1054,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1421,62 +1425,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1489,16 +1494,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1727,9 +1732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1021"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1831,9 +1836,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="13"/>
       <c r="F9" s="33"/>
     </row>
@@ -1874,9 +1877,7 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1931,9 +1932,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -2112,14 +2111,12 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -2205,7 +2202,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>5</v>
@@ -2272,9 +2269,7 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -2283,9 +2278,7 @@
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3458,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C965"/>
+  <dimension ref="A1:C964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3488,48 +3481,38 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>44646</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4488,7 +4471,6 @@
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -4500,7 +4482,7 @@
   <dimension ref="A1:C994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5513,10 +5495,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+    <sheetView topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8123,7 +8105,7 @@
         <v>44569</v>
       </c>
       <c r="B325" s="61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -8203,7 +8185,7 @@
         <v>44576</v>
       </c>
       <c r="B335" s="61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -8299,7 +8281,7 @@
         <v>44590</v>
       </c>
       <c r="B347" s="63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -8443,7 +8425,7 @@
         <v>44604</v>
       </c>
       <c r="B365" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -8539,7 +8521,7 @@
         <v>44611</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -8579,7 +8561,7 @@
         <v>44618</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -8636,6 +8618,70 @@
       </c>
       <c r="B389" s="68" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B390" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B391" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B392" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B393" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B394" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B395" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B396" s="69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="24">
+        <v>44625</v>
+      </c>
+      <c r="B397" s="69" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -8646,10 +8692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8967,6 +9013,14 @@
       </c>
       <c r="B39">
         <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="38">
+        <v>44618</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B499E54-3B38-441E-B648-7E778A2C94CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD177A61-A6C7-4241-8DE6-6410FD729F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="328">
   <si>
     <t>produto</t>
   </si>
@@ -1733,8 +1733,8 @@
   <dimension ref="A1:F1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,9 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="F9" s="33"/>
     </row>
@@ -1932,7 +1934,9 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -2041,7 +2045,9 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2260,7 +2266,9 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -2269,7 +2277,9 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -2297,7 +2307,9 @@
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
@@ -2360,7 +2372,9 @@
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -2369,7 +2383,9 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD177A61-A6C7-4241-8DE6-6410FD729F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09865A11-4C5E-4055-AD84-CC021AAA5CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -1041,10 +1041,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Ana Beatriz</t>
-  </si>
-  <si>
     <t>Cláudia</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1732,9 +1732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1836,9 +1836,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="13"/>
       <c r="F9" s="33"/>
     </row>
@@ -1934,9 +1932,7 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -2045,9 +2041,7 @@
       <c r="B31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2266,9 +2260,7 @@
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -2277,9 +2269,7 @@
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -2307,9 +2297,7 @@
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
@@ -2372,9 +2360,7 @@
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -2383,9 +2369,7 @@
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
@@ -3467,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C964"/>
+  <dimension ref="A1:C963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3497,10 +3481,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44632</v>
+        <v>44639</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>325</v>
@@ -3508,10 +3492,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>325</v>
@@ -3519,16 +3503,20 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44646</v>
+        <v>44653</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>44660</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4486,7 +4474,6 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5511,10 +5498,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B397"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
-    <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="B397" sqref="B397"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8700,6 +8687,70 @@
         <v>46</v>
       </c>
     </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B398" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B399" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B400" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B401" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B402" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B403" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B404" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="24">
+        <v>44632</v>
+      </c>
+      <c r="B405" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8708,10 +8759,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9033,9 +9084,17 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="B40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="38">
+        <v>44632</v>
+      </c>
+      <c r="B41">
         <v>14</v>
       </c>
     </row>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09865A11-4C5E-4055-AD84-CC021AAA5CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD002AD-FCF6-48F6-925E-DFD67F46CF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="327">
   <si>
     <t>produto</t>
   </si>
@@ -1033,9 +1033,6 @@
   </si>
   <si>
     <t>folhas de hibisco/vinagreira</t>
-  </si>
-  <si>
-    <t>Bernadete</t>
   </si>
   <si>
     <t>-</t>
@@ -1054,11 +1051,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1425,62 +1429,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="40" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="41" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1493,16 +1498,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1732,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1021"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -3451,10 +3456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C963"/>
+  <dimension ref="A1:C962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3481,42 +3486,32 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44639</v>
+        <v>44646</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>324</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>44646</v>
+        <v>44653</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44653</v>
+        <v>44660</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>44660</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4473,7 +4468,6 @@
     <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5498,10 +5492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC1E263-8857-40F8-80EA-E2B9223A60B4}">
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="B407" sqref="B407"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8751,6 +8745,70 @@
         <v>323</v>
       </c>
     </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B406" s="70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B407" s="70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B408" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B409" s="70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B410" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B411" s="70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B412" s="70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="24">
+        <v>44639</v>
+      </c>
+      <c r="B413" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8759,10 +8817,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E81ABCE-0B0E-4E06-8B44-AC66B8A5A776}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9096,6 +9154,14 @@
       </c>
       <c r="B41">
         <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="38">
+        <v>44639</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD002AD-FCF6-48F6-925E-DFD67F46CF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABA326-426B-4BBD-A8B1-E3252BEF0016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2940" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="327">
   <si>
     <t>produto</t>
   </si>
@@ -1737,9 +1735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3458,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C962"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3509,14 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>44667</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5495,7 +5500,7 @@
   <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="B417" sqref="B417"/>
+      <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/csa_pindorama.xlsx
+++ b/data/csa_pindorama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RNFAVAR\Documents\NEO DIPAS\Ciencia de Dados na Embraer\repos\web_app_CSA_pindorama\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABA326-426B-4BBD-A8B1-E3252BEF0016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC8630A-76E0-457B-AC8D-4BB9FA45ABE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="328">
   <si>
     <t>produto</t>
   </si>
@@ -1036,10 +1036,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>Cláudia</t>
-  </si>
-  <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Ana Beatriz</t>
+  </si>
+  <si>
+    <t>Camila</t>
   </si>
 </sst>
 </file>
@@ -1733,17 +1736,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1021"/>
+  <dimension ref="A1:F1022"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.09765625" customWidth="1"/>
-    <col min="2" max="26" width="7.59765625" customWidth="1"/>
+    <col min="2" max="3" width="7.59765625" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" style="13" customWidth="1"/>
+    <col min="5" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1756,172 +1761,184 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="C4" s="3"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="21"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="13"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1930,88 +1947,94 @@
     </row>
     <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -2020,64 +2043,69 @@
     </row>
     <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="21"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3"/>
+      <c r="D34" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -2086,108 +2114,109 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2"/>
+      <c r="D38" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -2196,284 +2225,295 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="C50" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B63" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B66" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B69" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="21"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="5"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="21"/>
+      <c r="D74" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="13"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="5"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
@@ -2481,971 +2521,979 @@
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  